--- a/public/data-excel.xlsx
+++ b/public/data-excel.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4575" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
     <sheet name="sinhvat" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form responses 1'!$A$1:$AG$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">sinhvat!$A$1:$C$31</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="399">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1277,6 +1278,12 @@
   </si>
   <si>
     <t>id-ho</t>
+  </si>
+  <si>
+    <t>loại tọa độ</t>
+  </si>
+  <si>
+    <t>tọa độ</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1414,7 +1421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1460,6 +1467,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1678,12 +1691,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1000"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB24" sqref="AB24:AB29"/>
+    <sheetView topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X1" sqref="X1:AB31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="9" customWidth="1"/>
@@ -1706,7 +1719,7 @@
     <col min="32" max="33" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.75" customHeight="1">
+    <row r="1" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1807,7 +1820,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15.75" customHeight="1">
+    <row r="2" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43316.588366562501</v>
       </c>
@@ -1908,7 +1921,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15.75" customHeight="1">
+    <row r="3" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43316.594704722222</v>
       </c>
@@ -2003,7 +2016,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15.75" customHeight="1">
+    <row r="4" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43316.600445844902</v>
       </c>
@@ -2083,7 +2096,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15.75" customHeight="1">
+    <row r="5" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43316.608265543982</v>
       </c>
@@ -2175,7 +2188,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15.75" customHeight="1">
+    <row r="6" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43316.61536358796</v>
       </c>
@@ -2273,7 +2286,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="15.75" customHeight="1">
+    <row r="7" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43316.628878622687</v>
       </c>
@@ -2374,7 +2387,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="15.75" customHeight="1">
+    <row r="8" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43316.668155081017</v>
       </c>
@@ -2469,7 +2482,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="15.75" customHeight="1">
+    <row r="9" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43316.684837650464</v>
       </c>
@@ -2567,7 +2580,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="15.75" customHeight="1">
+    <row r="10" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43316.976688159717</v>
       </c>
@@ -2659,7 +2672,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="15.75" customHeight="1">
+    <row r="11" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43316.987831585648</v>
       </c>
@@ -2748,7 +2761,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15.75" customHeight="1">
+    <row r="12" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43320.811747164349</v>
       </c>
@@ -2843,7 +2856,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="15.75" customHeight="1">
+    <row r="13" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43320.923074872684</v>
       </c>
@@ -2944,7 +2957,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="15.75" customHeight="1">
+    <row r="14" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43320.940653692131</v>
       </c>
@@ -3045,7 +3058,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="15.75" customHeight="1">
+    <row r="15" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43320.942184629632</v>
       </c>
@@ -3134,7 +3147,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="15.75" customHeight="1">
+    <row r="16" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43320.947299421299</v>
       </c>
@@ -3235,7 +3248,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15.75" customHeight="1">
+    <row r="17" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43320.953209907406</v>
       </c>
@@ -3324,7 +3337,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="15.75" customHeight="1">
+    <row r="18" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43320.957794131944</v>
       </c>
@@ -3413,7 +3426,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="15.75" customHeight="1">
+    <row r="19" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43321.283229432869</v>
       </c>
@@ -3502,7 +3515,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="15.75" customHeight="1">
+    <row r="20" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43321.287554097224</v>
       </c>
@@ -3582,7 +3595,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15.75" customHeight="1">
+    <row r="21" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43321.299728460654</v>
       </c>
@@ -3674,7 +3687,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15.75" customHeight="1">
+    <row r="22" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43321.305917488426</v>
       </c>
@@ -3772,7 +3785,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="15.75" customHeight="1">
+    <row r="23" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43321.315824618054</v>
       </c>
@@ -3873,7 +3886,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="15.75" customHeight="1">
+    <row r="24" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43321.358042534717</v>
       </c>
@@ -3968,7 +3981,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="15.75" customHeight="1">
+    <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43321.366538206014</v>
       </c>
@@ -4066,7 +4079,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="15.75" customHeight="1">
+    <row r="26" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43321.411907037036</v>
       </c>
@@ -4158,7 +4171,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="15.75" customHeight="1">
+    <row r="27" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43321.423842187505</v>
       </c>
@@ -4247,7 +4260,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="15.75" customHeight="1">
+    <row r="28" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43321.429337164351</v>
       </c>
@@ -4336,7 +4349,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="15.75" customHeight="1">
+    <row r="29" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>43321.450685810181</v>
       </c>
@@ -4425,7 +4438,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="15.75" customHeight="1">
+    <row r="30" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43321.457900451387</v>
       </c>
@@ -4514,7 +4527,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="15.75" customHeight="1">
+    <row r="31" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>43321.465755127312</v>
       </c>
@@ -4591,975 +4604,975 @@
         <v>392</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:AG31">
     <sortState ref="A2:AG31">
@@ -5708,11 +5721,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="9" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="22" customWidth="1"/>
@@ -5725,7 +5738,7 @@
     <col min="10" max="10" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>395</v>
       </c>
@@ -5757,7 +5770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -5789,7 +5802,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="23">
         <v>2</v>
       </c>
@@ -5821,7 +5834,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="23">
         <v>3</v>
       </c>
@@ -5853,7 +5866,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="23">
         <v>4</v>
       </c>
@@ -5885,7 +5898,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
         <v>5</v>
       </c>
@@ -5917,7 +5930,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <v>6</v>
       </c>
@@ -5949,7 +5962,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="23">
         <v>7</v>
       </c>
@@ -5981,7 +5994,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="23">
         <v>8</v>
       </c>
@@ -6013,7 +6026,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <v>9</v>
       </c>
@@ -6045,7 +6058,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>10</v>
       </c>
@@ -6077,7 +6090,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>11</v>
       </c>
@@ -6109,7 +6122,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>12</v>
       </c>
@@ -6141,7 +6154,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>13</v>
       </c>
@@ -6173,7 +6186,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <v>14</v>
       </c>
@@ -6205,7 +6218,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
         <v>15</v>
       </c>
@@ -6237,7 +6250,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>16</v>
       </c>
@@ -6269,7 +6282,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>17</v>
       </c>
@@ -6301,7 +6314,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>18</v>
       </c>
@@ -6333,7 +6346,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>19</v>
       </c>
@@ -6365,7 +6378,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <v>20</v>
       </c>
@@ -6397,7 +6410,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <v>21</v>
       </c>
@@ -6429,7 +6442,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <v>22</v>
       </c>
@@ -6461,7 +6474,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <v>23</v>
       </c>
@@ -6493,7 +6506,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>24</v>
       </c>
@@ -6525,7 +6538,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>25</v>
       </c>
@@ -6557,7 +6570,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
         <v>26</v>
       </c>
@@ -6589,7 +6602,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="23">
         <v>27</v>
       </c>
@@ -6621,7 +6634,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
         <v>28</v>
       </c>
@@ -6653,7 +6666,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="23">
         <v>29</v>
       </c>
@@ -6685,7 +6698,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="23">
         <v>30</v>
       </c>
@@ -6724,4 +6737,2221 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="str">
+        <f>VLOOKUP(A2,$K$1:$P$31,2,0)</f>
+        <v xml:space="preserve">9.571639 N, 105.748757 E </v>
+      </c>
+      <c r="K2" s="9">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP(A3,$K$1:$P$31,3,0)</f>
+        <v>9.563858 N, 105.742898 E</v>
+      </c>
+      <c r="K3" s="9">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP(A4,$K$1:$P$31,4,0)</f>
+        <v>9.572843 N, 105.745688 E</v>
+      </c>
+      <c r="K4" s="9">
+        <v>3</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP(A5,$K$1:$P$31,5,0)</f>
+        <v>9.571639 N, 105.748757 E</v>
+      </c>
+      <c r="K5" s="9">
+        <v>4</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="str">
+        <f>VLOOKUP(A6,$K$1:$P$31,6,0)</f>
+        <v>9.571639 N, 105.748757 E</v>
+      </c>
+      <c r="K6" s="9">
+        <v>5</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(A7,$K$1:$P$31,2,0)</f>
+        <v>9.567941 N, 105.745900 E</v>
+      </c>
+      <c r="K7" s="9">
+        <v>6</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="str">
+        <f>VLOOKUP(A8,$K$1:$P$31,3,0)</f>
+        <v>9.571219 N, 105.746927 E</v>
+      </c>
+      <c r="K8" s="9">
+        <v>7</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP(A9,$K$1:$P$31,4,0)</f>
+        <v>9.570929 N, 105.744803 E</v>
+      </c>
+      <c r="K9" s="9">
+        <v>8</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="str">
+        <f>VLOOKUP(A10,$K$1:$P$31,5,0)</f>
+        <v>9.566659 N, 105.742109 E</v>
+      </c>
+      <c r="K10" s="9">
+        <v>9</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <f>VLOOKUP(A11,$K$1:$P$31,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>10</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" ref="C12:C43" si="0">VLOOKUP(A12,$K$1:$P$31,2,0)</f>
+        <v>9.572816 N, 105.747786 E</v>
+      </c>
+      <c r="K12" s="9">
+        <v>11</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:C44" si="1">VLOOKUP(A13,$K$1:$P$31,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>12</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C45" si="2">VLOOKUP(A14,$K$1:$P$31,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>13</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:C46" si="3">VLOOKUP(A15,$K$1:$P$31,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>14</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:C47" si="4">VLOOKUP(A16,$K$1:$P$31,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>15</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" ref="C17:C48" si="5">VLOOKUP(A17,$K$1:$P$31,2,0)</f>
+        <v>9.570890 N, 105.747758 E</v>
+      </c>
+      <c r="K17" s="9">
+        <v>16</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" ref="C18:C49" si="6">VLOOKUP(A18,$K$1:$P$31,3,0)</f>
+        <v>9.569821 N, 105.742266 E</v>
+      </c>
+      <c r="K18" s="9">
+        <v>17</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:C50" si="7">VLOOKUP(A19,$K$1:$P$31,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>18</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:C51" si="8">VLOOKUP(A20,$K$1:$P$31,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>19</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:C52" si="9">VLOOKUP(A21,$K$1:$P$31,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>20</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" ref="C22:C53" si="10">VLOOKUP(A22,$K$1:$P$31,2,0)</f>
+        <v>9.563974 N, 105.742907 E</v>
+      </c>
+      <c r="K22" s="9">
+        <v>21</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" ref="C23:C54" si="11">VLOOKUP(A23,$K$1:$P$31,3,0)</f>
+        <v>9.574045 N, 105.734023 E</v>
+      </c>
+      <c r="K23" s="9">
+        <v>22</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" ref="C24:C55" si="12">VLOOKUP(A24,$K$1:$P$31,4,0)</f>
+        <v>9.575835 N, 105.739572 E</v>
+      </c>
+      <c r="K24" s="9">
+        <v>23</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" ref="C25:C56" si="13">VLOOKUP(A25,$K$1:$P$31,5,0)</f>
+        <v>9.566833 N, 105.733836 E</v>
+      </c>
+      <c r="K25" s="9">
+        <v>24</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:C57" si="14">VLOOKUP(A26,$K$1:$P$31,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="9">
+        <v>25</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" ref="C27:C58" si="15">VLOOKUP(A27,$K$1:$P$31,2,0)</f>
+        <v>9.562804 N, 105.735163 E</v>
+      </c>
+      <c r="K27" s="9">
+        <v>26</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" ref="C28:C59" si="16">VLOOKUP(A28,$K$1:$P$31,3,0)</f>
+        <v>9.565287 N, 105.742496 E</v>
+      </c>
+      <c r="K28" s="9">
+        <v>27</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" ref="C29:C60" si="17">VLOOKUP(A29,$K$1:$P$31,4,0)</f>
+        <v>9.568298 N, 105.743803 E</v>
+      </c>
+      <c r="K29" s="9">
+        <v>28</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" ref="C30:C61" si="18">VLOOKUP(A30,$K$1:$P$31,5,0)</f>
+        <v>9.567662 N, 105.733728 E</v>
+      </c>
+      <c r="K30" s="9">
+        <v>29</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" ref="C31:C62" si="19">VLOOKUP(A31,$K$1:$P$31,6,0)</f>
+        <v>9.575595 N, 105.746317 E</v>
+      </c>
+      <c r="K31" s="9">
+        <v>30</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" ref="C32:C63" si="20">VLOOKUP(A32,$K$1:$P$31,2,0)</f>
+        <v>9.575614 N, 105.749954 E</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" ref="C33:C64" si="21">VLOOKUP(A33,$K$1:$P$31,3,0)</f>
+        <v>9.573805 N, 105.751692 E</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" ref="C34:C65" si="22">VLOOKUP(A34,$K$1:$P$31,4,0)</f>
+        <v>9.568964 N, 105.745518 E</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:C66" si="23">VLOOKUP(A35,$K$1:$P$31,5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:C67" si="24">VLOOKUP(A36,$K$1:$P$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" ref="C37:C68" si="25">VLOOKUP(A37,$K$1:$P$31,2,0)</f>
+        <v>Là loài hoạt động về đêm, được tìm thấy trên các thân gỗ lớn, trên các tảng đá lớn và cả trên nền rừng. Thường xuất hiện ở các sinh cảnh vườn rừng, rừng thứ sinh, kẹt đá và ở các tảng đá lớn trong sinh cảnh ven suối.</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" ref="C38:C69" si="26">VLOOKUP(A38,$K$1:$P$31,3,0)</f>
+        <v>9.572150 N; 105.749171 E</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" ref="C39:C70" si="27">VLOOKUP(A39,$K$1:$P$31,4,0)</f>
+        <v>9.571834 N; 105.748832 E</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" ref="C40:C71" si="28">VLOOKUP(A40,$K$1:$P$31,5,0)</f>
+        <v>9.574353 N, 105.750457 E</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:C72" si="29">VLOOKUP(A41,$K$1:$P$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" ref="C42:C73" si="30">VLOOKUP(A42,$K$1:$P$31,2,0)</f>
+        <v>9.570530 N, 105.746281 E</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" ref="C43:C74" si="31">VLOOKUP(A43,$K$1:$P$31,3,0)</f>
+        <v>9.570154 N, 105.745585 E</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:C75" si="32">VLOOKUP(A44,$K$1:$P$31,4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:C76" si="33">VLOOKUP(A45,$K$1:$P$31,5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:C77" si="34">VLOOKUP(A46,$K$1:$P$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" ref="C47:C78" si="35">VLOOKUP(A47,$K$1:$P$31,2,0)</f>
+        <v>9.568512 N; 105.745714 E</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" ref="C48:C79" si="36">VLOOKUP(A48,$K$1:$P$31,3,0)</f>
+        <v>9.565689 N; 105.746787 E</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" ref="C49:C80" si="37">VLOOKUP(A49,$K$1:$P$31,4,0)</f>
+        <v>9.572158 N; 105.748482 E</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50:C81" si="38">VLOOKUP(A50,$K$1:$P$31,5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:C82" si="39">VLOOKUP(A51,$K$1:$P$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" ref="C52:C83" si="40">VLOOKUP(A52,$K$1:$P$31,2,0)</f>
+        <v>9.567941 N, 105.745900 E</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" ref="C53:C84" si="41">VLOOKUP(A53,$K$1:$P$31,3,0)</f>
+        <v>9.571219 N, 105.746927 E</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" ref="C54:C85" si="42">VLOOKUP(A54,$K$1:$P$31,4,0)</f>
+        <v>9.570929 N, 105.744803 E</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" ref="C55:C86" si="43">VLOOKUP(A55,$K$1:$P$31,5,0)</f>
+        <v>9.566659 N, 105.742109 E</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ref="C56:C87" si="44">VLOOKUP(A56,$K$1:$P$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" ref="C57:C88" si="45">VLOOKUP(A57,$K$1:$P$31,2,0)</f>
+        <v>9.571639 N, 105.748757 E</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" ref="C58:C89" si="46">VLOOKUP(A58,$K$1:$P$31,3,0)</f>
+        <v>9.563858 N, 105.742898 E</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" ref="C59:C90" si="47">VLOOKUP(A59,$K$1:$P$31,4,0)</f>
+        <v>9.572843 N, 105.745688 E</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" ref="C60:C91" si="48">VLOOKUP(A60,$K$1:$P$31,5,0)</f>
+        <v>9.571639 N, 105.748757 E</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" ref="C61:C92" si="49">VLOOKUP(A61,$K$1:$P$31,6,0)</f>
+        <v>9.571639 N, 105.748757 E</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" ref="C62:C93" si="50">VLOOKUP(A62,$K$1:$P$31,2,0)</f>
+        <v>9.575814 N, 105.746348 E</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" ref="C63:C94" si="51">VLOOKUP(A63,$K$1:$P$31,3,0)</f>
+        <v>9.575835 N; 105.739632 E</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" ref="C64:C95" si="52">VLOOKUP(A64,$K$1:$P$31,4,0)</f>
+        <v>9.570419 N; 105.732745 E</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" ref="C65:C96" si="53">VLOOKUP(A65,$K$1:$P$31,5,0)</f>
+        <v>9.564791 N; 105.737014 E</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" ref="C66:C97" si="54">VLOOKUP(A66,$K$1:$P$31,6,0)</f>
+        <v>9.563098 N; 105.744053 E</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C98" si="55">VLOOKUP(A67,$K$1:$P$31,2,0)</f>
+        <v>9.566779 N, 105.746481 E</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" ref="C68:C99" si="56">VLOOKUP(A68,$K$1:$P$31,3,0)</f>
+        <v>9.567480 N, 105.740065 E</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" ref="C69:C100" si="57">VLOOKUP(A69,$K$1:$P$31,4,0)</f>
+        <v>9.566335 N, 105.742257 E</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ref="C70:C101" si="58">VLOOKUP(A70,$K$1:$P$31,5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ref="C71:C102" si="59">VLOOKUP(A71,$K$1:$P$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" ref="C72:C103" si="60">VLOOKUP(A72,$K$1:$P$31,2,0)</f>
+        <v>9.568883 N, 105.744345 E</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" ref="C73:C104" si="61">VLOOKUP(A73,$K$1:$P$31,3,0)</f>
+        <v>9.563726 N, 105.736029 E</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" ref="C74:C105" si="62">VLOOKUP(A74,$K$1:$P$31,4,0)</f>
+        <v>9.562971 N, 105.743106 E</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" ref="C75:C106" si="63">VLOOKUP(A75,$K$1:$P$31,5,0)</f>
+        <v>9.569341 N, 105.745378 E</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" ref="C76:C107" si="64">VLOOKUP(A76,$K$1:$P$31,6,0)</f>
+        <v>9.575449 N, 105.738078 E</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" ref="C77:C108" si="65">VLOOKUP(A77,$K$1:$P$31,2,0)</f>
+        <v>9.574483 N, 105.735084 E</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" ref="C78:C109" si="66">VLOOKUP(A78,$K$1:$P$31,3,0)</f>
+        <v>9.563477 N, 105.735868 E</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ref="C79:C110" si="67">VLOOKUP(A79,$K$1:$P$31,4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ref="C80:C111" si="68">VLOOKUP(A80,$K$1:$P$31,5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ref="C81:C112" si="69">VLOOKUP(A81,$K$1:$P$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>17</v>
+      </c>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" ref="C82:C113" si="70">VLOOKUP(A82,$K$1:$P$31,2,0)</f>
+        <v>9.564849 N, 105.737191 E</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>17</v>
+      </c>
+      <c r="B83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" ref="C83:C114" si="71">VLOOKUP(A83,$K$1:$P$31,3,0)</f>
+        <v>9.570315 N, 105.748801 E</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>17</v>
+      </c>
+      <c r="B84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" ref="C84:C115" si="72">VLOOKUP(A84,$K$1:$P$31,4,0)</f>
+        <v>9.577027 N, 105.742940 E</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>17</v>
+      </c>
+      <c r="B85" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ref="C85:C116" si="73">VLOOKUP(A85,$K$1:$P$31,5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ref="C86:C117" si="74">VLOOKUP(A86,$K$1:$P$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>18</v>
+      </c>
+      <c r="B87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" ref="C87:C118" si="75">VLOOKUP(A87,$K$1:$P$31,2,0)</f>
+        <v>9.572058 N, 105.745009 E</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>18</v>
+      </c>
+      <c r="B88" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" ref="C88:C119" si="76">VLOOKUP(A88,$K$1:$P$31,3,0)</f>
+        <v>9.568216 N, 105.741847 E</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>18</v>
+      </c>
+      <c r="B89" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" ref="C89:C120" si="77">VLOOKUP(A89,$K$1:$P$31,4,0)</f>
+        <v>9.567883 N, 105.733726 E</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>18</v>
+      </c>
+      <c r="B90" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ref="C90:C121" si="78">VLOOKUP(A90,$K$1:$P$31,5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>18</v>
+      </c>
+      <c r="B91" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ref="C91:C122" si="79">VLOOKUP(A91,$K$1:$P$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>19</v>
+      </c>
+      <c r="B92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" ref="C92:C123" si="80">VLOOKUP(A92,$K$1:$P$31,2,0)</f>
+        <v>9.572816 N, 105.747786 E</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>19</v>
+      </c>
+      <c r="B93" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ref="C93:C124" si="81">VLOOKUP(A93,$K$1:$P$31,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>19</v>
+      </c>
+      <c r="B94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ref="C94:C125" si="82">VLOOKUP(A94,$K$1:$P$31,4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>19</v>
+      </c>
+      <c r="B95" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ref="C95:C126" si="83">VLOOKUP(A95,$K$1:$P$31,5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>19</v>
+      </c>
+      <c r="B96" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ref="C96:C127" si="84">VLOOKUP(A96,$K$1:$P$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>20</v>
+      </c>
+      <c r="B97" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" ref="C97:C128" si="85">VLOOKUP(A97,$K$1:$P$31,2,0)</f>
+        <v>9.570890 N, 105.747758 E</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>20</v>
+      </c>
+      <c r="B98" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" ref="C98:C129" si="86">VLOOKUP(A98,$K$1:$P$31,3,0)</f>
+        <v>9.569821 N, 105.742266 E</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>20</v>
+      </c>
+      <c r="B99" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ref="C99:C130" si="87">VLOOKUP(A99,$K$1:$P$31,4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>20</v>
+      </c>
+      <c r="B100" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ref="C100:C131" si="88">VLOOKUP(A100,$K$1:$P$31,5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>20</v>
+      </c>
+      <c r="B101" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ref="C101:C132" si="89">VLOOKUP(A101,$K$1:$P$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>21</v>
+      </c>
+      <c r="B102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" ref="C102:C133" si="90">VLOOKUP(A102,$K$1:$P$31,2,0)</f>
+        <v>9.563974 N, 105.742907 E</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>21</v>
+      </c>
+      <c r="B103" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" ref="C103:C134" si="91">VLOOKUP(A103,$K$1:$P$31,3,0)</f>
+        <v>9.574045 N, 105.734023 E</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>21</v>
+      </c>
+      <c r="B104" t="s">
+        <v>24</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" ref="C104:C151" si="92">VLOOKUP(A104,$K$1:$P$31,4,0)</f>
+        <v>9.575835 N, 105.739572 E</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>21</v>
+      </c>
+      <c r="B105" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" ref="C105:C151" si="93">VLOOKUP(A105,$K$1:$P$31,5,0)</f>
+        <v>9.566833 N, 105.733836 E</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>21</v>
+      </c>
+      <c r="B106" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106">
+        <f t="shared" ref="C106:C151" si="94">VLOOKUP(A106,$K$1:$P$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>22</v>
+      </c>
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" ref="C107:C151" si="95">VLOOKUP(A107,$K$1:$P$31,2,0)</f>
+        <v>9.562804 N, 105.735163 E</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>22</v>
+      </c>
+      <c r="B108" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" ref="C108:C151" si="96">VLOOKUP(A108,$K$1:$P$31,3,0)</f>
+        <v>9.565287 N, 105.742496 E</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>22</v>
+      </c>
+      <c r="B109" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" ref="C109:C151" si="97">VLOOKUP(A109,$K$1:$P$31,4,0)</f>
+        <v>9.568298 N, 105.743803 E</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>22</v>
+      </c>
+      <c r="B110" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" ref="C110:C151" si="98">VLOOKUP(A110,$K$1:$P$31,5,0)</f>
+        <v>9.567662 N, 105.733728 E</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>22</v>
+      </c>
+      <c r="B111" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" ref="C111:C151" si="99">VLOOKUP(A111,$K$1:$P$31,6,0)</f>
+        <v>9.575595 N, 105.746317 E</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>23</v>
+      </c>
+      <c r="B112" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" ref="C112:C151" si="100">VLOOKUP(A112,$K$1:$P$31,2,0)</f>
+        <v>9.575614 N, 105.749954 E</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>23</v>
+      </c>
+      <c r="B113" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" ref="C113:C151" si="101">VLOOKUP(A113,$K$1:$P$31,3,0)</f>
+        <v>9.573805 N, 105.751692 E</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>23</v>
+      </c>
+      <c r="B114" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" ref="C114:C151" si="102">VLOOKUP(A114,$K$1:$P$31,4,0)</f>
+        <v>9.568964 N, 105.745518 E</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>23</v>
+      </c>
+      <c r="B115" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115">
+        <f t="shared" ref="C115:C151" si="103">VLOOKUP(A115,$K$1:$P$31,5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>23</v>
+      </c>
+      <c r="B116" t="s">
+        <v>26</v>
+      </c>
+      <c r="C116">
+        <f t="shared" ref="C116:C151" si="104">VLOOKUP(A116,$K$1:$P$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>24</v>
+      </c>
+      <c r="B117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" ref="C117:C151" si="105">VLOOKUP(A117,$K$1:$P$31,2,0)</f>
+        <v>9.572352 N; 105.750249 E</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>24</v>
+      </c>
+      <c r="B118" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" ref="C118:C151" si="106">VLOOKUP(A118,$K$1:$P$31,3,0)</f>
+        <v>9.572150 N; 105.749171 E</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>24</v>
+      </c>
+      <c r="B119" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" ref="C119:C151" si="107">VLOOKUP(A119,$K$1:$P$31,4,0)</f>
+        <v>9.571834 N; 105.748832 E</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>24</v>
+      </c>
+      <c r="B120" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" ref="C120:C151" si="108">VLOOKUP(A120,$K$1:$P$31,5,0)</f>
+        <v xml:space="preserve">9.574353 N, 105.750457 E </v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>24</v>
+      </c>
+      <c r="B121" t="s">
+        <v>26</v>
+      </c>
+      <c r="C121">
+        <f t="shared" ref="C121:C151" si="109">VLOOKUP(A121,$K$1:$P$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>25</v>
+      </c>
+      <c r="B122" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" ref="C122:C151" si="110">VLOOKUP(A122,$K$1:$P$31,2,0)</f>
+        <v>9.570530 N, 105.746281 E</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>25</v>
+      </c>
+      <c r="B123" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" ref="C123:C151" si="111">VLOOKUP(A123,$K$1:$P$31,3,0)</f>
+        <v>9.570154 N, 105.745585 E</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>25</v>
+      </c>
+      <c r="B124" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124">
+        <f t="shared" ref="C124:C151" si="112">VLOOKUP(A124,$K$1:$P$31,4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>25</v>
+      </c>
+      <c r="B125" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125">
+        <f t="shared" ref="C125:C151" si="113">VLOOKUP(A125,$K$1:$P$31,5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>25</v>
+      </c>
+      <c r="B126" t="s">
+        <v>26</v>
+      </c>
+      <c r="C126">
+        <f t="shared" ref="C126:C151" si="114">VLOOKUP(A126,$K$1:$P$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>26</v>
+      </c>
+      <c r="B127" t="s">
+        <v>22</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" ref="C127:C151" si="115">VLOOKUP(A127,$K$1:$P$31,2,0)</f>
+        <v>9.568512 N; 105.745714 E</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>26</v>
+      </c>
+      <c r="B128" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" ref="C128:C151" si="116">VLOOKUP(A128,$K$1:$P$31,3,0)</f>
+        <v>9.565689 N; 105.746787 E</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>26</v>
+      </c>
+      <c r="B129" t="s">
+        <v>24</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" ref="C129:C151" si="117">VLOOKUP(A129,$K$1:$P$31,4,0)</f>
+        <v>9.572158 N; 105.748482 E</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>26</v>
+      </c>
+      <c r="B130" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130">
+        <f t="shared" ref="C130:C151" si="118">VLOOKUP(A130,$K$1:$P$31,5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>26</v>
+      </c>
+      <c r="B131" t="s">
+        <v>26</v>
+      </c>
+      <c r="C131">
+        <f t="shared" ref="C131:C151" si="119">VLOOKUP(A131,$K$1:$P$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>27</v>
+      </c>
+      <c r="B132" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" ref="C132:C151" si="120">VLOOKUP(A132,$K$1:$P$31,2,0)</f>
+        <v>9.573264 N, 105.747454 E</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>27</v>
+      </c>
+      <c r="B133" t="s">
+        <v>23</v>
+      </c>
+      <c r="C133" t="str">
+        <f t="shared" ref="C133:C151" si="121">VLOOKUP(A133,$K$1:$P$31,3,0)</f>
+        <v>9.571806 N, 105.744368 E</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>27</v>
+      </c>
+      <c r="B134" t="s">
+        <v>24</v>
+      </c>
+      <c r="C134">
+        <f t="shared" ref="C134:C151" si="122">VLOOKUP(A134,$K$1:$P$31,4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>27</v>
+      </c>
+      <c r="B135" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135">
+        <f t="shared" ref="C135:C151" si="123">VLOOKUP(A135,$K$1:$P$31,5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>27</v>
+      </c>
+      <c r="B136" t="s">
+        <v>26</v>
+      </c>
+      <c r="C136">
+        <f t="shared" ref="C136:C151" si="124">VLOOKUP(A136,$K$1:$P$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>28</v>
+      </c>
+      <c r="B137" t="s">
+        <v>22</v>
+      </c>
+      <c r="C137" t="str">
+        <f t="shared" ref="C137:C151" si="125">VLOOKUP(A137,$K$1:$P$31,2,0)</f>
+        <v>9.575381 N, 105.750288 E</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>28</v>
+      </c>
+      <c r="B138" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138">
+        <f t="shared" ref="C138:C151" si="126">VLOOKUP(A138,$K$1:$P$31,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>28</v>
+      </c>
+      <c r="B139" t="s">
+        <v>24</v>
+      </c>
+      <c r="C139">
+        <f t="shared" ref="C139:C151" si="127">VLOOKUP(A139,$K$1:$P$31,4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>28</v>
+      </c>
+      <c r="B140" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140">
+        <f t="shared" ref="C140:C151" si="128">VLOOKUP(A140,$K$1:$P$31,5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>28</v>
+      </c>
+      <c r="B141" t="s">
+        <v>26</v>
+      </c>
+      <c r="C141">
+        <f t="shared" ref="C141:C151" si="129">VLOOKUP(A141,$K$1:$P$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>29</v>
+      </c>
+      <c r="B142" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" t="str">
+        <f t="shared" ref="C142:C151" si="130">VLOOKUP(A142,$K$1:$P$31,2,0)</f>
+        <v>9.574122 N, 105.751436 E</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>29</v>
+      </c>
+      <c r="B143" t="s">
+        <v>23</v>
+      </c>
+      <c r="C143">
+        <f t="shared" ref="C143:C151" si="131">VLOOKUP(A143,$K$1:$P$31,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>29</v>
+      </c>
+      <c r="B144" t="s">
+        <v>24</v>
+      </c>
+      <c r="C144">
+        <f t="shared" ref="C144:C151" si="132">VLOOKUP(A144,$K$1:$P$31,4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>29</v>
+      </c>
+      <c r="B145" t="s">
+        <v>25</v>
+      </c>
+      <c r="C145">
+        <f t="shared" ref="C145:C151" si="133">VLOOKUP(A145,$K$1:$P$31,5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>29</v>
+      </c>
+      <c r="B146" t="s">
+        <v>26</v>
+      </c>
+      <c r="C146">
+        <f t="shared" ref="C146:C151" si="134">VLOOKUP(A146,$K$1:$P$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>30</v>
+      </c>
+      <c r="B147" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" t="str">
+        <f t="shared" ref="C147:C151" si="135">VLOOKUP(A147,$K$1:$P$31,2,0)</f>
+        <v>9.575423 N, 105.749730 E</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>30</v>
+      </c>
+      <c r="B148" t="s">
+        <v>23</v>
+      </c>
+      <c r="C148">
+        <f t="shared" ref="C148:C151" si="136">VLOOKUP(A148,$K$1:$P$31,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>30</v>
+      </c>
+      <c r="B149" t="s">
+        <v>24</v>
+      </c>
+      <c r="C149">
+        <f t="shared" ref="C149:C151" si="137">VLOOKUP(A149,$K$1:$P$31,4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>30</v>
+      </c>
+      <c r="B150" t="s">
+        <v>25</v>
+      </c>
+      <c r="C150">
+        <f t="shared" ref="C150:C151" si="138">VLOOKUP(A150,$K$1:$P$31,5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>30</v>
+      </c>
+      <c r="B151" t="s">
+        <v>26</v>
+      </c>
+      <c r="C151">
+        <f t="shared" ref="C151" si="139">VLOOKUP(A151,$K$1:$P$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/data-excel.xlsx
+++ b/public/data-excel.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4575" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4575" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
     <sheet name="sinhvat" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form responses 1'!$A$1:$AG$31</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="402">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1284,6 +1285,15 @@
   </si>
   <si>
     <t>tọa độ</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>image</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1303,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1421,7 +1431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1472,6 +1482,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1691,12 +1704,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1000"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X1" sqref="X1:AB31"/>
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="9" customWidth="1"/>
@@ -1705,7 +1718,7 @@
     <col min="8" max="8" width="31.140625" style="18" customWidth="1"/>
     <col min="9" max="9" width="22" style="12" customWidth="1"/>
     <col min="10" max="10" width="27.85546875" style="15" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
     <col min="14" max="15" width="13.42578125" customWidth="1"/>
@@ -1719,7 +1732,7 @@
     <col min="32" max="33" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1820,7 +1833,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>43316.588366562501</v>
       </c>
@@ -1921,7 +1934,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="15.75" customHeight="1">
       <c r="A3" s="2">
         <v>43316.594704722222</v>
       </c>
@@ -2016,7 +2029,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>43316.600445844902</v>
       </c>
@@ -2096,7 +2109,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>43316.608265543982</v>
       </c>
@@ -2188,7 +2201,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>43316.61536358796</v>
       </c>
@@ -2286,7 +2299,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>43316.628878622687</v>
       </c>
@@ -2387,7 +2400,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>43316.668155081017</v>
       </c>
@@ -2482,7 +2495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>43316.684837650464</v>
       </c>
@@ -2580,7 +2593,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>43316.976688159717</v>
       </c>
@@ -2672,7 +2685,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>43316.987831585648</v>
       </c>
@@ -2761,7 +2774,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="15.75" customHeight="1">
       <c r="A12" s="2">
         <v>43320.811747164349</v>
       </c>
@@ -2856,7 +2869,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>43320.923074872684</v>
       </c>
@@ -2957,7 +2970,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>43320.940653692131</v>
       </c>
@@ -3058,7 +3071,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="15.75" customHeight="1">
       <c r="A15" s="2">
         <v>43320.942184629632</v>
       </c>
@@ -3147,7 +3160,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>43320.947299421299</v>
       </c>
@@ -3248,7 +3261,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>43320.953209907406</v>
       </c>
@@ -3337,7 +3350,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="15.75" customHeight="1">
       <c r="A18" s="2">
         <v>43320.957794131944</v>
       </c>
@@ -3426,7 +3439,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" ht="15.75" customHeight="1">
       <c r="A19" s="2">
         <v>43321.283229432869</v>
       </c>
@@ -3515,7 +3528,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" ht="15.75" customHeight="1">
       <c r="A20" s="2">
         <v>43321.287554097224</v>
       </c>
@@ -3595,7 +3608,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="15.75" customHeight="1">
       <c r="A21" s="2">
         <v>43321.299728460654</v>
       </c>
@@ -3687,7 +3700,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" ht="15.75" customHeight="1">
       <c r="A22" s="2">
         <v>43321.305917488426</v>
       </c>
@@ -3785,7 +3798,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" ht="15.75" customHeight="1">
       <c r="A23" s="2">
         <v>43321.315824618054</v>
       </c>
@@ -3886,7 +3899,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" ht="15.75" customHeight="1">
       <c r="A24" s="2">
         <v>43321.358042534717</v>
       </c>
@@ -3981,7 +3994,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="15.75" customHeight="1">
       <c r="A25" s="2">
         <v>43321.366538206014</v>
       </c>
@@ -4079,7 +4092,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="15.75" customHeight="1">
       <c r="A26" s="2">
         <v>43321.411907037036</v>
       </c>
@@ -4171,7 +4184,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" ht="15.75" customHeight="1">
       <c r="A27" s="2">
         <v>43321.423842187505</v>
       </c>
@@ -4260,7 +4273,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" ht="15.75" customHeight="1">
       <c r="A28" s="2">
         <v>43321.429337164351</v>
       </c>
@@ -4349,7 +4362,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="15.75" customHeight="1">
       <c r="A29" s="2">
         <v>43321.450685810181</v>
       </c>
@@ -4438,7 +4451,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="15.75" customHeight="1">
       <c r="A30" s="2">
         <v>43321.457900451387</v>
       </c>
@@ -4527,7 +4540,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" ht="15.75" customHeight="1">
       <c r="A31" s="2">
         <v>43321.465755127312</v>
       </c>
@@ -4604,975 +4617,975 @@
         <v>392</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A1:AG31">
     <sortState ref="A2:AG31">
@@ -5725,7 +5738,7 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="9" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="22" customWidth="1"/>
@@ -5738,7 +5751,7 @@
     <col min="10" max="10" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="24" t="s">
         <v>395</v>
       </c>
@@ -5770,7 +5783,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -5802,7 +5815,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="23">
         <v>2</v>
       </c>
@@ -5834,7 +5847,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="23">
         <v>3</v>
       </c>
@@ -5866,7 +5879,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="23">
         <v>4</v>
       </c>
@@ -5898,7 +5911,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="23">
         <v>5</v>
       </c>
@@ -5930,7 +5943,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="23">
         <v>6</v>
       </c>
@@ -5962,7 +5975,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="23">
         <v>7</v>
       </c>
@@ -5994,7 +6007,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="23">
         <v>8</v>
       </c>
@@ -6026,7 +6039,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="23">
         <v>9</v>
       </c>
@@ -6058,7 +6071,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="23">
         <v>10</v>
       </c>
@@ -6090,7 +6103,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="23">
         <v>11</v>
       </c>
@@ -6122,7 +6135,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="23">
         <v>12</v>
       </c>
@@ -6154,7 +6167,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="23">
         <v>13</v>
       </c>
@@ -6186,7 +6199,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="23">
         <v>14</v>
       </c>
@@ -6218,7 +6231,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="23">
         <v>15</v>
       </c>
@@ -6250,7 +6263,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="23">
         <v>16</v>
       </c>
@@ -6282,7 +6295,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="23">
         <v>17</v>
       </c>
@@ -6314,7 +6327,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="23">
         <v>18</v>
       </c>
@@ -6346,7 +6359,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="23">
         <v>19</v>
       </c>
@@ -6378,7 +6391,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="23">
         <v>20</v>
       </c>
@@ -6410,7 +6423,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="23">
         <v>21</v>
       </c>
@@ -6442,7 +6455,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="23">
         <v>22</v>
       </c>
@@ -6474,7 +6487,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="23">
         <v>23</v>
       </c>
@@ -6506,7 +6519,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="23">
         <v>24</v>
       </c>
@@ -6538,7 +6551,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="23">
         <v>25</v>
       </c>
@@ -6570,7 +6583,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="23">
         <v>26</v>
       </c>
@@ -6602,7 +6615,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="23">
         <v>27</v>
       </c>
@@ -6634,7 +6647,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="23">
         <v>28</v>
       </c>
@@ -6666,7 +6679,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="23">
         <v>29</v>
       </c>
@@ -6698,7 +6711,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="23">
         <v>30</v>
       </c>
@@ -6743,11 +6756,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
@@ -6756,7 +6769,7 @@
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" s="33" t="s">
         <v>393</v>
       </c>
@@ -6785,7 +6798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6815,7 +6828,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6842,7 +6855,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6860,7 +6873,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6881,7 +6894,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6908,7 +6921,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>2</v>
       </c>
@@ -6938,7 +6951,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>2</v>
       </c>
@@ -6962,7 +6975,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>2</v>
       </c>
@@ -6989,7 +7002,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>2</v>
       </c>
@@ -7010,7 +7023,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>2</v>
       </c>
@@ -7034,7 +7047,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>3</v>
       </c>
@@ -7042,7 +7055,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" ref="C12:C43" si="0">VLOOKUP(A12,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C12" si="0">VLOOKUP(A12,$K$1:$P$31,2,0)</f>
         <v>9.572816 N, 105.747786 E</v>
       </c>
       <c r="K12" s="9">
@@ -7061,7 +7074,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>3</v>
       </c>
@@ -7069,7 +7082,7 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C44" si="1">VLOOKUP(A13,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C13" si="1">VLOOKUP(A13,$K$1:$P$31,3,0)</f>
         <v>0</v>
       </c>
       <c r="K13" s="9">
@@ -7091,7 +7104,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>3</v>
       </c>
@@ -7099,7 +7112,7 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:C45" si="2">VLOOKUP(A14,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C14" si="2">VLOOKUP(A14,$K$1:$P$31,4,0)</f>
         <v>0</v>
       </c>
       <c r="K14" s="9">
@@ -7121,7 +7134,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>3</v>
       </c>
@@ -7129,7 +7142,7 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:C46" si="3">VLOOKUP(A15,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C15" si="3">VLOOKUP(A15,$K$1:$P$31,5,0)</f>
         <v>0</v>
       </c>
       <c r="K15" s="9">
@@ -7145,7 +7158,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>3</v>
       </c>
@@ -7153,7 +7166,7 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:C47" si="4">VLOOKUP(A16,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C16" si="4">VLOOKUP(A16,$K$1:$P$31,6,0)</f>
         <v>0</v>
       </c>
       <c r="K16" s="9">
@@ -7175,7 +7188,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>4</v>
       </c>
@@ -7183,7 +7196,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" ref="C17:C48" si="5">VLOOKUP(A17,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C17" si="5">VLOOKUP(A17,$K$1:$P$31,2,0)</f>
         <v>9.570890 N, 105.747758 E</v>
       </c>
       <c r="K17" s="9">
@@ -7196,7 +7209,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>4</v>
       </c>
@@ -7204,7 +7217,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" ref="C18:C49" si="6">VLOOKUP(A18,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C18" si="6">VLOOKUP(A18,$K$1:$P$31,3,0)</f>
         <v>9.569821 N, 105.742266 E</v>
       </c>
       <c r="K18" s="9">
@@ -7220,7 +7233,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>4</v>
       </c>
@@ -7228,7 +7241,7 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:C50" si="7">VLOOKUP(A19,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C19" si="7">VLOOKUP(A19,$K$1:$P$31,4,0)</f>
         <v>0</v>
       </c>
       <c r="K19" s="9">
@@ -7244,7 +7257,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>4</v>
       </c>
@@ -7252,7 +7265,7 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:C51" si="8">VLOOKUP(A20,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C20" si="8">VLOOKUP(A20,$K$1:$P$31,5,0)</f>
         <v>0</v>
       </c>
       <c r="K20" s="9">
@@ -7262,7 +7275,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>4</v>
       </c>
@@ -7270,7 +7283,7 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:C52" si="9">VLOOKUP(A21,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C21" si="9">VLOOKUP(A21,$K$1:$P$31,6,0)</f>
         <v>0</v>
       </c>
       <c r="K21" s="9">
@@ -7283,7 +7296,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>5</v>
       </c>
@@ -7291,7 +7304,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" ref="C22:C53" si="10">VLOOKUP(A22,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C22" si="10">VLOOKUP(A22,$K$1:$P$31,2,0)</f>
         <v>9.563974 N, 105.742907 E</v>
       </c>
       <c r="K22" s="9">
@@ -7310,7 +7323,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>5</v>
       </c>
@@ -7318,7 +7331,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" ref="C23:C54" si="11">VLOOKUP(A23,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C23" si="11">VLOOKUP(A23,$K$1:$P$31,3,0)</f>
         <v>9.574045 N, 105.734023 E</v>
       </c>
       <c r="K23" s="9">
@@ -7340,7 +7353,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>5</v>
       </c>
@@ -7348,7 +7361,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" ref="C24:C55" si="12">VLOOKUP(A24,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C24" si="12">VLOOKUP(A24,$K$1:$P$31,4,0)</f>
         <v>9.575835 N, 105.739572 E</v>
       </c>
       <c r="K24" s="9">
@@ -7364,7 +7377,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>5</v>
       </c>
@@ -7372,7 +7385,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" ref="C25:C56" si="13">VLOOKUP(A25,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C25" si="13">VLOOKUP(A25,$K$1:$P$31,5,0)</f>
         <v>9.566833 N, 105.733836 E</v>
       </c>
       <c r="K25" s="9">
@@ -7391,7 +7404,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>5</v>
       </c>
@@ -7399,7 +7412,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:C57" si="14">VLOOKUP(A26,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C26" si="14">VLOOKUP(A26,$K$1:$P$31,6,0)</f>
         <v>0</v>
       </c>
       <c r="K26" s="9">
@@ -7412,7 +7425,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>6</v>
       </c>
@@ -7420,7 +7433,7 @@
         <v>22</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" ref="C27:C58" si="15">VLOOKUP(A27,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C27" si="15">VLOOKUP(A27,$K$1:$P$31,2,0)</f>
         <v>9.562804 N, 105.735163 E</v>
       </c>
       <c r="K27" s="9">
@@ -7436,7 +7449,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>6</v>
       </c>
@@ -7444,7 +7457,7 @@
         <v>23</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" ref="C28:C59" si="16">VLOOKUP(A28,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C28" si="16">VLOOKUP(A28,$K$1:$P$31,3,0)</f>
         <v>9.565287 N, 105.742496 E</v>
       </c>
       <c r="K28" s="9">
@@ -7457,7 +7470,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>6</v>
       </c>
@@ -7465,7 +7478,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" ref="C29:C60" si="17">VLOOKUP(A29,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C29" si="17">VLOOKUP(A29,$K$1:$P$31,4,0)</f>
         <v>9.568298 N, 105.743803 E</v>
       </c>
       <c r="K29" s="9">
@@ -7475,7 +7488,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>6</v>
       </c>
@@ -7483,7 +7496,7 @@
         <v>25</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" ref="C30:C61" si="18">VLOOKUP(A30,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C30" si="18">VLOOKUP(A30,$K$1:$P$31,5,0)</f>
         <v>9.567662 N, 105.733728 E</v>
       </c>
       <c r="K30" s="9">
@@ -7493,7 +7506,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>6</v>
       </c>
@@ -7501,7 +7514,7 @@
         <v>26</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" ref="C31:C62" si="19">VLOOKUP(A31,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C31" si="19">VLOOKUP(A31,$K$1:$P$31,6,0)</f>
         <v>9.575595 N, 105.746317 E</v>
       </c>
       <c r="K31" s="9">
@@ -7511,7 +7524,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>7</v>
       </c>
@@ -7519,11 +7532,11 @@
         <v>22</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" ref="C32:C63" si="20">VLOOKUP(A32,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C32" si="20">VLOOKUP(A32,$K$1:$P$31,2,0)</f>
         <v>9.575614 N, 105.749954 E</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>7</v>
       </c>
@@ -7531,11 +7544,11 @@
         <v>23</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" ref="C33:C64" si="21">VLOOKUP(A33,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C33" si="21">VLOOKUP(A33,$K$1:$P$31,3,0)</f>
         <v>9.573805 N, 105.751692 E</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>7</v>
       </c>
@@ -7543,11 +7556,11 @@
         <v>24</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" ref="C34:C65" si="22">VLOOKUP(A34,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C34" si="22">VLOOKUP(A34,$K$1:$P$31,4,0)</f>
         <v>9.568964 N, 105.745518 E</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>7</v>
       </c>
@@ -7555,11 +7568,11 @@
         <v>25</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:C66" si="23">VLOOKUP(A35,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C35" si="23">VLOOKUP(A35,$K$1:$P$31,5,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>7</v>
       </c>
@@ -7567,11 +7580,11 @@
         <v>26</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:C67" si="24">VLOOKUP(A36,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C36" si="24">VLOOKUP(A36,$K$1:$P$31,6,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>8</v>
       </c>
@@ -7579,11 +7592,11 @@
         <v>22</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" ref="C37:C68" si="25">VLOOKUP(A37,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C37" si="25">VLOOKUP(A37,$K$1:$P$31,2,0)</f>
         <v>Là loài hoạt động về đêm, được tìm thấy trên các thân gỗ lớn, trên các tảng đá lớn và cả trên nền rừng. Thường xuất hiện ở các sinh cảnh vườn rừng, rừng thứ sinh, kẹt đá và ở các tảng đá lớn trong sinh cảnh ven suối.</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>8</v>
       </c>
@@ -7591,11 +7604,11 @@
         <v>23</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" ref="C38:C69" si="26">VLOOKUP(A38,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C38" si="26">VLOOKUP(A38,$K$1:$P$31,3,0)</f>
         <v>9.572150 N; 105.749171 E</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>8</v>
       </c>
@@ -7603,11 +7616,11 @@
         <v>24</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" ref="C39:C70" si="27">VLOOKUP(A39,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C39" si="27">VLOOKUP(A39,$K$1:$P$31,4,0)</f>
         <v>9.571834 N; 105.748832 E</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>8</v>
       </c>
@@ -7615,11 +7628,11 @@
         <v>25</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" ref="C40:C71" si="28">VLOOKUP(A40,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C40" si="28">VLOOKUP(A40,$K$1:$P$31,5,0)</f>
         <v>9.574353 N, 105.750457 E</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>8</v>
       </c>
@@ -7627,11 +7640,11 @@
         <v>26</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:C72" si="29">VLOOKUP(A41,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C41" si="29">VLOOKUP(A41,$K$1:$P$31,6,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>9</v>
       </c>
@@ -7639,11 +7652,11 @@
         <v>22</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" ref="C42:C73" si="30">VLOOKUP(A42,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C42" si="30">VLOOKUP(A42,$K$1:$P$31,2,0)</f>
         <v>9.570530 N, 105.746281 E</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>9</v>
       </c>
@@ -7651,11 +7664,11 @@
         <v>23</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" ref="C43:C74" si="31">VLOOKUP(A43,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C43" si="31">VLOOKUP(A43,$K$1:$P$31,3,0)</f>
         <v>9.570154 N, 105.745585 E</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>9</v>
       </c>
@@ -7663,11 +7676,11 @@
         <v>24</v>
       </c>
       <c r="C44">
-        <f t="shared" ref="C44:C75" si="32">VLOOKUP(A44,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C44" si="32">VLOOKUP(A44,$K$1:$P$31,4,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>9</v>
       </c>
@@ -7675,11 +7688,11 @@
         <v>25</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45:C76" si="33">VLOOKUP(A45,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C45" si="33">VLOOKUP(A45,$K$1:$P$31,5,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>9</v>
       </c>
@@ -7687,11 +7700,11 @@
         <v>26</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:C77" si="34">VLOOKUP(A46,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C46" si="34">VLOOKUP(A46,$K$1:$P$31,6,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>10</v>
       </c>
@@ -7699,11 +7712,11 @@
         <v>22</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" ref="C47:C78" si="35">VLOOKUP(A47,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C47" si="35">VLOOKUP(A47,$K$1:$P$31,2,0)</f>
         <v>9.568512 N; 105.745714 E</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>10</v>
       </c>
@@ -7711,11 +7724,11 @@
         <v>23</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" ref="C48:C79" si="36">VLOOKUP(A48,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C48" si="36">VLOOKUP(A48,$K$1:$P$31,3,0)</f>
         <v>9.565689 N; 105.746787 E</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>10</v>
       </c>
@@ -7723,11 +7736,11 @@
         <v>24</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" ref="C49:C80" si="37">VLOOKUP(A49,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C49" si="37">VLOOKUP(A49,$K$1:$P$31,4,0)</f>
         <v>9.572158 N; 105.748482 E</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>10</v>
       </c>
@@ -7735,11 +7748,11 @@
         <v>25</v>
       </c>
       <c r="C50">
-        <f t="shared" ref="C50:C81" si="38">VLOOKUP(A50,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C50" si="38">VLOOKUP(A50,$K$1:$P$31,5,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>10</v>
       </c>
@@ -7747,11 +7760,11 @@
         <v>26</v>
       </c>
       <c r="C51">
-        <f t="shared" ref="C51:C82" si="39">VLOOKUP(A51,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C51" si="39">VLOOKUP(A51,$K$1:$P$31,6,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>11</v>
       </c>
@@ -7759,11 +7772,11 @@
         <v>22</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" ref="C52:C83" si="40">VLOOKUP(A52,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C52" si="40">VLOOKUP(A52,$K$1:$P$31,2,0)</f>
         <v>9.567941 N, 105.745900 E</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>11</v>
       </c>
@@ -7771,11 +7784,11 @@
         <v>23</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" ref="C53:C84" si="41">VLOOKUP(A53,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C53" si="41">VLOOKUP(A53,$K$1:$P$31,3,0)</f>
         <v>9.571219 N, 105.746927 E</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>11</v>
       </c>
@@ -7783,11 +7796,11 @@
         <v>24</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" ref="C54:C85" si="42">VLOOKUP(A54,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C54" si="42">VLOOKUP(A54,$K$1:$P$31,4,0)</f>
         <v>9.570929 N, 105.744803 E</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>11</v>
       </c>
@@ -7795,11 +7808,11 @@
         <v>25</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" ref="C55:C86" si="43">VLOOKUP(A55,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C55" si="43">VLOOKUP(A55,$K$1:$P$31,5,0)</f>
         <v>9.566659 N, 105.742109 E</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>11</v>
       </c>
@@ -7807,11 +7820,11 @@
         <v>26</v>
       </c>
       <c r="C56">
-        <f t="shared" ref="C56:C87" si="44">VLOOKUP(A56,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C56" si="44">VLOOKUP(A56,$K$1:$P$31,6,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>12</v>
       </c>
@@ -7819,11 +7832,11 @@
         <v>22</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" ref="C57:C88" si="45">VLOOKUP(A57,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C57" si="45">VLOOKUP(A57,$K$1:$P$31,2,0)</f>
         <v>9.571639 N, 105.748757 E</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>12</v>
       </c>
@@ -7831,11 +7844,11 @@
         <v>23</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" ref="C58:C89" si="46">VLOOKUP(A58,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C58" si="46">VLOOKUP(A58,$K$1:$P$31,3,0)</f>
         <v>9.563858 N, 105.742898 E</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>12</v>
       </c>
@@ -7843,11 +7856,11 @@
         <v>24</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" ref="C59:C90" si="47">VLOOKUP(A59,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C59" si="47">VLOOKUP(A59,$K$1:$P$31,4,0)</f>
         <v>9.572843 N, 105.745688 E</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>12</v>
       </c>
@@ -7855,11 +7868,11 @@
         <v>25</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" ref="C60:C91" si="48">VLOOKUP(A60,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C60" si="48">VLOOKUP(A60,$K$1:$P$31,5,0)</f>
         <v>9.571639 N, 105.748757 E</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>12</v>
       </c>
@@ -7867,11 +7880,11 @@
         <v>26</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" ref="C61:C92" si="49">VLOOKUP(A61,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C61" si="49">VLOOKUP(A61,$K$1:$P$31,6,0)</f>
         <v>9.571639 N, 105.748757 E</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>13</v>
       </c>
@@ -7879,11 +7892,11 @@
         <v>22</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" ref="C62:C93" si="50">VLOOKUP(A62,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C62" si="50">VLOOKUP(A62,$K$1:$P$31,2,0)</f>
         <v>9.575814 N, 105.746348 E</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>13</v>
       </c>
@@ -7891,11 +7904,11 @@
         <v>23</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" ref="C63:C94" si="51">VLOOKUP(A63,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C63" si="51">VLOOKUP(A63,$K$1:$P$31,3,0)</f>
         <v>9.575835 N; 105.739632 E</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>13</v>
       </c>
@@ -7903,11 +7916,11 @@
         <v>24</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" ref="C64:C95" si="52">VLOOKUP(A64,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C64" si="52">VLOOKUP(A64,$K$1:$P$31,4,0)</f>
         <v>9.570419 N; 105.732745 E</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>13</v>
       </c>
@@ -7915,11 +7928,11 @@
         <v>25</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" ref="C65:C96" si="53">VLOOKUP(A65,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C65" si="53">VLOOKUP(A65,$K$1:$P$31,5,0)</f>
         <v>9.564791 N; 105.737014 E</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>13</v>
       </c>
@@ -7927,11 +7940,11 @@
         <v>26</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" ref="C66:C97" si="54">VLOOKUP(A66,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C66" si="54">VLOOKUP(A66,$K$1:$P$31,6,0)</f>
         <v>9.563098 N; 105.744053 E</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>14</v>
       </c>
@@ -7939,11 +7952,11 @@
         <v>22</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C98" si="55">VLOOKUP(A67,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C67" si="55">VLOOKUP(A67,$K$1:$P$31,2,0)</f>
         <v>9.566779 N, 105.746481 E</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>14</v>
       </c>
@@ -7951,11 +7964,11 @@
         <v>23</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" ref="C68:C99" si="56">VLOOKUP(A68,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C68" si="56">VLOOKUP(A68,$K$1:$P$31,3,0)</f>
         <v>9.567480 N, 105.740065 E</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>14</v>
       </c>
@@ -7963,11 +7976,11 @@
         <v>24</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" ref="C69:C100" si="57">VLOOKUP(A69,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C69" si="57">VLOOKUP(A69,$K$1:$P$31,4,0)</f>
         <v>9.566335 N, 105.742257 E</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>14</v>
       </c>
@@ -7975,11 +7988,11 @@
         <v>25</v>
       </c>
       <c r="C70">
-        <f t="shared" ref="C70:C101" si="58">VLOOKUP(A70,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C70" si="58">VLOOKUP(A70,$K$1:$P$31,5,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>14</v>
       </c>
@@ -7987,11 +8000,11 @@
         <v>26</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:C102" si="59">VLOOKUP(A71,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C71" si="59">VLOOKUP(A71,$K$1:$P$31,6,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>15</v>
       </c>
@@ -7999,11 +8012,11 @@
         <v>22</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" ref="C72:C103" si="60">VLOOKUP(A72,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C72" si="60">VLOOKUP(A72,$K$1:$P$31,2,0)</f>
         <v>9.568883 N, 105.744345 E</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>15</v>
       </c>
@@ -8011,11 +8024,11 @@
         <v>23</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" ref="C73:C104" si="61">VLOOKUP(A73,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C73" si="61">VLOOKUP(A73,$K$1:$P$31,3,0)</f>
         <v>9.563726 N, 105.736029 E</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>15</v>
       </c>
@@ -8023,11 +8036,11 @@
         <v>24</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" ref="C74:C105" si="62">VLOOKUP(A74,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C74" si="62">VLOOKUP(A74,$K$1:$P$31,4,0)</f>
         <v>9.562971 N, 105.743106 E</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>15</v>
       </c>
@@ -8035,11 +8048,11 @@
         <v>25</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" ref="C75:C106" si="63">VLOOKUP(A75,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C75" si="63">VLOOKUP(A75,$K$1:$P$31,5,0)</f>
         <v>9.569341 N, 105.745378 E</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>15</v>
       </c>
@@ -8047,11 +8060,11 @@
         <v>26</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" ref="C76:C107" si="64">VLOOKUP(A76,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C76" si="64">VLOOKUP(A76,$K$1:$P$31,6,0)</f>
         <v>9.575449 N, 105.738078 E</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>16</v>
       </c>
@@ -8059,11 +8072,11 @@
         <v>22</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" ref="C77:C108" si="65">VLOOKUP(A77,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C77" si="65">VLOOKUP(A77,$K$1:$P$31,2,0)</f>
         <v>9.574483 N, 105.735084 E</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>16</v>
       </c>
@@ -8071,11 +8084,11 @@
         <v>23</v>
       </c>
       <c r="C78" t="str">
-        <f t="shared" ref="C78:C109" si="66">VLOOKUP(A78,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C78" si="66">VLOOKUP(A78,$K$1:$P$31,3,0)</f>
         <v>9.563477 N, 105.735868 E</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>16</v>
       </c>
@@ -8083,11 +8096,11 @@
         <v>24</v>
       </c>
       <c r="C79">
-        <f t="shared" ref="C79:C110" si="67">VLOOKUP(A79,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C79" si="67">VLOOKUP(A79,$K$1:$P$31,4,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>16</v>
       </c>
@@ -8095,11 +8108,11 @@
         <v>25</v>
       </c>
       <c r="C80">
-        <f t="shared" ref="C80:C111" si="68">VLOOKUP(A80,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C80" si="68">VLOOKUP(A80,$K$1:$P$31,5,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>16</v>
       </c>
@@ -8107,11 +8120,11 @@
         <v>26</v>
       </c>
       <c r="C81">
-        <f t="shared" ref="C81:C112" si="69">VLOOKUP(A81,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C81" si="69">VLOOKUP(A81,$K$1:$P$31,6,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>17</v>
       </c>
@@ -8119,11 +8132,11 @@
         <v>22</v>
       </c>
       <c r="C82" t="str">
-        <f t="shared" ref="C82:C113" si="70">VLOOKUP(A82,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C82" si="70">VLOOKUP(A82,$K$1:$P$31,2,0)</f>
         <v>9.564849 N, 105.737191 E</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>17</v>
       </c>
@@ -8131,11 +8144,11 @@
         <v>23</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" ref="C83:C114" si="71">VLOOKUP(A83,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C83" si="71">VLOOKUP(A83,$K$1:$P$31,3,0)</f>
         <v>9.570315 N, 105.748801 E</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>17</v>
       </c>
@@ -8143,11 +8156,11 @@
         <v>24</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" ref="C84:C115" si="72">VLOOKUP(A84,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C84" si="72">VLOOKUP(A84,$K$1:$P$31,4,0)</f>
         <v>9.577027 N, 105.742940 E</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>17</v>
       </c>
@@ -8155,11 +8168,11 @@
         <v>25</v>
       </c>
       <c r="C85">
-        <f t="shared" ref="C85:C116" si="73">VLOOKUP(A85,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C85" si="73">VLOOKUP(A85,$K$1:$P$31,5,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>17</v>
       </c>
@@ -8167,11 +8180,11 @@
         <v>26</v>
       </c>
       <c r="C86">
-        <f t="shared" ref="C86:C117" si="74">VLOOKUP(A86,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C86" si="74">VLOOKUP(A86,$K$1:$P$31,6,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>18</v>
       </c>
@@ -8179,11 +8192,11 @@
         <v>22</v>
       </c>
       <c r="C87" t="str">
-        <f t="shared" ref="C87:C118" si="75">VLOOKUP(A87,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C87" si="75">VLOOKUP(A87,$K$1:$P$31,2,0)</f>
         <v>9.572058 N, 105.745009 E</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>18</v>
       </c>
@@ -8191,11 +8204,11 @@
         <v>23</v>
       </c>
       <c r="C88" t="str">
-        <f t="shared" ref="C88:C119" si="76">VLOOKUP(A88,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C88" si="76">VLOOKUP(A88,$K$1:$P$31,3,0)</f>
         <v>9.568216 N, 105.741847 E</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>18</v>
       </c>
@@ -8203,11 +8216,11 @@
         <v>24</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" ref="C89:C120" si="77">VLOOKUP(A89,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C89" si="77">VLOOKUP(A89,$K$1:$P$31,4,0)</f>
         <v>9.567883 N, 105.733726 E</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>18</v>
       </c>
@@ -8215,11 +8228,11 @@
         <v>25</v>
       </c>
       <c r="C90">
-        <f t="shared" ref="C90:C121" si="78">VLOOKUP(A90,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C90" si="78">VLOOKUP(A90,$K$1:$P$31,5,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>18</v>
       </c>
@@ -8227,11 +8240,11 @@
         <v>26</v>
       </c>
       <c r="C91">
-        <f t="shared" ref="C91:C122" si="79">VLOOKUP(A91,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C91" si="79">VLOOKUP(A91,$K$1:$P$31,6,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>19</v>
       </c>
@@ -8239,11 +8252,11 @@
         <v>22</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" ref="C92:C123" si="80">VLOOKUP(A92,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C92" si="80">VLOOKUP(A92,$K$1:$P$31,2,0)</f>
         <v>9.572816 N, 105.747786 E</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>19</v>
       </c>
@@ -8251,11 +8264,11 @@
         <v>23</v>
       </c>
       <c r="C93">
-        <f t="shared" ref="C93:C124" si="81">VLOOKUP(A93,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C93" si="81">VLOOKUP(A93,$K$1:$P$31,3,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>19</v>
       </c>
@@ -8263,11 +8276,11 @@
         <v>24</v>
       </c>
       <c r="C94">
-        <f t="shared" ref="C94:C125" si="82">VLOOKUP(A94,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C94" si="82">VLOOKUP(A94,$K$1:$P$31,4,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>19</v>
       </c>
@@ -8275,11 +8288,11 @@
         <v>25</v>
       </c>
       <c r="C95">
-        <f t="shared" ref="C95:C126" si="83">VLOOKUP(A95,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C95" si="83">VLOOKUP(A95,$K$1:$P$31,5,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>19</v>
       </c>
@@ -8287,11 +8300,11 @@
         <v>26</v>
       </c>
       <c r="C96">
-        <f t="shared" ref="C96:C127" si="84">VLOOKUP(A96,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C96" si="84">VLOOKUP(A96,$K$1:$P$31,6,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>20</v>
       </c>
@@ -8299,11 +8312,11 @@
         <v>22</v>
       </c>
       <c r="C97" t="str">
-        <f t="shared" ref="C97:C128" si="85">VLOOKUP(A97,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C97" si="85">VLOOKUP(A97,$K$1:$P$31,2,0)</f>
         <v>9.570890 N, 105.747758 E</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>20</v>
       </c>
@@ -8311,11 +8324,11 @@
         <v>23</v>
       </c>
       <c r="C98" t="str">
-        <f t="shared" ref="C98:C129" si="86">VLOOKUP(A98,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C98" si="86">VLOOKUP(A98,$K$1:$P$31,3,0)</f>
         <v>9.569821 N, 105.742266 E</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>20</v>
       </c>
@@ -8323,11 +8336,11 @@
         <v>24</v>
       </c>
       <c r="C99">
-        <f t="shared" ref="C99:C130" si="87">VLOOKUP(A99,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C99" si="87">VLOOKUP(A99,$K$1:$P$31,4,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>20</v>
       </c>
@@ -8335,11 +8348,11 @@
         <v>25</v>
       </c>
       <c r="C100">
-        <f t="shared" ref="C100:C131" si="88">VLOOKUP(A100,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C100" si="88">VLOOKUP(A100,$K$1:$P$31,5,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>20</v>
       </c>
@@ -8347,11 +8360,11 @@
         <v>26</v>
       </c>
       <c r="C101">
-        <f t="shared" ref="C101:C132" si="89">VLOOKUP(A101,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C101" si="89">VLOOKUP(A101,$K$1:$P$31,6,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102">
         <v>21</v>
       </c>
@@ -8359,11 +8372,11 @@
         <v>22</v>
       </c>
       <c r="C102" t="str">
-        <f t="shared" ref="C102:C133" si="90">VLOOKUP(A102,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C102" si="90">VLOOKUP(A102,$K$1:$P$31,2,0)</f>
         <v>9.563974 N, 105.742907 E</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103">
         <v>21</v>
       </c>
@@ -8371,11 +8384,11 @@
         <v>23</v>
       </c>
       <c r="C103" t="str">
-        <f t="shared" ref="C103:C134" si="91">VLOOKUP(A103,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C103" si="91">VLOOKUP(A103,$K$1:$P$31,3,0)</f>
         <v>9.574045 N, 105.734023 E</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104">
         <v>21</v>
       </c>
@@ -8383,11 +8396,11 @@
         <v>24</v>
       </c>
       <c r="C104" t="str">
-        <f t="shared" ref="C104:C151" si="92">VLOOKUP(A104,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C104" si="92">VLOOKUP(A104,$K$1:$P$31,4,0)</f>
         <v>9.575835 N, 105.739572 E</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105">
         <v>21</v>
       </c>
@@ -8395,11 +8408,11 @@
         <v>25</v>
       </c>
       <c r="C105" t="str">
-        <f t="shared" ref="C105:C151" si="93">VLOOKUP(A105,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C105" si="93">VLOOKUP(A105,$K$1:$P$31,5,0)</f>
         <v>9.566833 N, 105.733836 E</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106">
         <v>21</v>
       </c>
@@ -8407,11 +8420,11 @@
         <v>26</v>
       </c>
       <c r="C106">
-        <f t="shared" ref="C106:C151" si="94">VLOOKUP(A106,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C106" si="94">VLOOKUP(A106,$K$1:$P$31,6,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107">
         <v>22</v>
       </c>
@@ -8419,11 +8432,11 @@
         <v>22</v>
       </c>
       <c r="C107" t="str">
-        <f t="shared" ref="C107:C151" si="95">VLOOKUP(A107,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C107" si="95">VLOOKUP(A107,$K$1:$P$31,2,0)</f>
         <v>9.562804 N, 105.735163 E</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108">
         <v>22</v>
       </c>
@@ -8431,11 +8444,11 @@
         <v>23</v>
       </c>
       <c r="C108" t="str">
-        <f t="shared" ref="C108:C151" si="96">VLOOKUP(A108,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C108" si="96">VLOOKUP(A108,$K$1:$P$31,3,0)</f>
         <v>9.565287 N, 105.742496 E</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109">
         <v>22</v>
       </c>
@@ -8443,11 +8456,11 @@
         <v>24</v>
       </c>
       <c r="C109" t="str">
-        <f t="shared" ref="C109:C151" si="97">VLOOKUP(A109,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C109" si="97">VLOOKUP(A109,$K$1:$P$31,4,0)</f>
         <v>9.568298 N, 105.743803 E</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110">
         <v>22</v>
       </c>
@@ -8455,11 +8468,11 @@
         <v>25</v>
       </c>
       <c r="C110" t="str">
-        <f t="shared" ref="C110:C151" si="98">VLOOKUP(A110,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C110" si="98">VLOOKUP(A110,$K$1:$P$31,5,0)</f>
         <v>9.567662 N, 105.733728 E</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111">
         <v>22</v>
       </c>
@@ -8467,11 +8480,11 @@
         <v>26</v>
       </c>
       <c r="C111" t="str">
-        <f t="shared" ref="C111:C151" si="99">VLOOKUP(A111,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C111" si="99">VLOOKUP(A111,$K$1:$P$31,6,0)</f>
         <v>9.575595 N, 105.746317 E</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112">
         <v>23</v>
       </c>
@@ -8479,11 +8492,11 @@
         <v>22</v>
       </c>
       <c r="C112" t="str">
-        <f t="shared" ref="C112:C151" si="100">VLOOKUP(A112,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C112" si="100">VLOOKUP(A112,$K$1:$P$31,2,0)</f>
         <v>9.575614 N, 105.749954 E</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113">
         <v>23</v>
       </c>
@@ -8491,11 +8504,11 @@
         <v>23</v>
       </c>
       <c r="C113" t="str">
-        <f t="shared" ref="C113:C151" si="101">VLOOKUP(A113,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C113" si="101">VLOOKUP(A113,$K$1:$P$31,3,0)</f>
         <v>9.573805 N, 105.751692 E</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114">
         <v>23</v>
       </c>
@@ -8503,11 +8516,11 @@
         <v>24</v>
       </c>
       <c r="C114" t="str">
-        <f t="shared" ref="C114:C151" si="102">VLOOKUP(A114,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C114" si="102">VLOOKUP(A114,$K$1:$P$31,4,0)</f>
         <v>9.568964 N, 105.745518 E</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115">
         <v>23</v>
       </c>
@@ -8515,11 +8528,11 @@
         <v>25</v>
       </c>
       <c r="C115">
-        <f t="shared" ref="C115:C151" si="103">VLOOKUP(A115,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C115" si="103">VLOOKUP(A115,$K$1:$P$31,5,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116">
         <v>23</v>
       </c>
@@ -8527,11 +8540,11 @@
         <v>26</v>
       </c>
       <c r="C116">
-        <f t="shared" ref="C116:C151" si="104">VLOOKUP(A116,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C116" si="104">VLOOKUP(A116,$K$1:$P$31,6,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117">
         <v>24</v>
       </c>
@@ -8539,11 +8552,11 @@
         <v>22</v>
       </c>
       <c r="C117" t="str">
-        <f t="shared" ref="C117:C151" si="105">VLOOKUP(A117,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C117" si="105">VLOOKUP(A117,$K$1:$P$31,2,0)</f>
         <v>9.572352 N; 105.750249 E</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118">
         <v>24</v>
       </c>
@@ -8551,11 +8564,11 @@
         <v>23</v>
       </c>
       <c r="C118" t="str">
-        <f t="shared" ref="C118:C151" si="106">VLOOKUP(A118,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C118" si="106">VLOOKUP(A118,$K$1:$P$31,3,0)</f>
         <v>9.572150 N; 105.749171 E</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119">
         <v>24</v>
       </c>
@@ -8563,11 +8576,11 @@
         <v>24</v>
       </c>
       <c r="C119" t="str">
-        <f t="shared" ref="C119:C151" si="107">VLOOKUP(A119,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C119" si="107">VLOOKUP(A119,$K$1:$P$31,4,0)</f>
         <v>9.571834 N; 105.748832 E</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120">
         <v>24</v>
       </c>
@@ -8575,11 +8588,11 @@
         <v>25</v>
       </c>
       <c r="C120" t="str">
-        <f t="shared" ref="C120:C151" si="108">VLOOKUP(A120,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C120" si="108">VLOOKUP(A120,$K$1:$P$31,5,0)</f>
         <v xml:space="preserve">9.574353 N, 105.750457 E </v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121">
         <v>24</v>
       </c>
@@ -8587,11 +8600,11 @@
         <v>26</v>
       </c>
       <c r="C121">
-        <f t="shared" ref="C121:C151" si="109">VLOOKUP(A121,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C121" si="109">VLOOKUP(A121,$K$1:$P$31,6,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122">
         <v>25</v>
       </c>
@@ -8599,11 +8612,11 @@
         <v>22</v>
       </c>
       <c r="C122" t="str">
-        <f t="shared" ref="C122:C151" si="110">VLOOKUP(A122,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C122" si="110">VLOOKUP(A122,$K$1:$P$31,2,0)</f>
         <v>9.570530 N, 105.746281 E</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123">
         <v>25</v>
       </c>
@@ -8611,11 +8624,11 @@
         <v>23</v>
       </c>
       <c r="C123" t="str">
-        <f t="shared" ref="C123:C151" si="111">VLOOKUP(A123,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C123" si="111">VLOOKUP(A123,$K$1:$P$31,3,0)</f>
         <v>9.570154 N, 105.745585 E</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124">
         <v>25</v>
       </c>
@@ -8623,11 +8636,11 @@
         <v>24</v>
       </c>
       <c r="C124">
-        <f t="shared" ref="C124:C151" si="112">VLOOKUP(A124,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C124" si="112">VLOOKUP(A124,$K$1:$P$31,4,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125">
         <v>25</v>
       </c>
@@ -8635,11 +8648,11 @@
         <v>25</v>
       </c>
       <c r="C125">
-        <f t="shared" ref="C125:C151" si="113">VLOOKUP(A125,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C125" si="113">VLOOKUP(A125,$K$1:$P$31,5,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126">
         <v>25</v>
       </c>
@@ -8647,11 +8660,11 @@
         <v>26</v>
       </c>
       <c r="C126">
-        <f t="shared" ref="C126:C151" si="114">VLOOKUP(A126,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C126" si="114">VLOOKUP(A126,$K$1:$P$31,6,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127">
         <v>26</v>
       </c>
@@ -8659,11 +8672,11 @@
         <v>22</v>
       </c>
       <c r="C127" t="str">
-        <f t="shared" ref="C127:C151" si="115">VLOOKUP(A127,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C127" si="115">VLOOKUP(A127,$K$1:$P$31,2,0)</f>
         <v>9.568512 N; 105.745714 E</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128">
         <v>26</v>
       </c>
@@ -8671,11 +8684,11 @@
         <v>23</v>
       </c>
       <c r="C128" t="str">
-        <f t="shared" ref="C128:C151" si="116">VLOOKUP(A128,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C128" si="116">VLOOKUP(A128,$K$1:$P$31,3,0)</f>
         <v>9.565689 N; 105.746787 E</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129">
         <v>26</v>
       </c>
@@ -8683,11 +8696,11 @@
         <v>24</v>
       </c>
       <c r="C129" t="str">
-        <f t="shared" ref="C129:C151" si="117">VLOOKUP(A129,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C129" si="117">VLOOKUP(A129,$K$1:$P$31,4,0)</f>
         <v>9.572158 N; 105.748482 E</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130">
         <v>26</v>
       </c>
@@ -8695,11 +8708,11 @@
         <v>25</v>
       </c>
       <c r="C130">
-        <f t="shared" ref="C130:C151" si="118">VLOOKUP(A130,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C130" si="118">VLOOKUP(A130,$K$1:$P$31,5,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131">
         <v>26</v>
       </c>
@@ -8707,11 +8720,11 @@
         <v>26</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:C151" si="119">VLOOKUP(A131,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C131" si="119">VLOOKUP(A131,$K$1:$P$31,6,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132">
         <v>27</v>
       </c>
@@ -8719,11 +8732,11 @@
         <v>22</v>
       </c>
       <c r="C132" t="str">
-        <f t="shared" ref="C132:C151" si="120">VLOOKUP(A132,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C132" si="120">VLOOKUP(A132,$K$1:$P$31,2,0)</f>
         <v>9.573264 N, 105.747454 E</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133">
         <v>27</v>
       </c>
@@ -8731,11 +8744,11 @@
         <v>23</v>
       </c>
       <c r="C133" t="str">
-        <f t="shared" ref="C133:C151" si="121">VLOOKUP(A133,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C133" si="121">VLOOKUP(A133,$K$1:$P$31,3,0)</f>
         <v>9.571806 N, 105.744368 E</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134">
         <v>27</v>
       </c>
@@ -8743,11 +8756,11 @@
         <v>24</v>
       </c>
       <c r="C134">
-        <f t="shared" ref="C134:C151" si="122">VLOOKUP(A134,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C134" si="122">VLOOKUP(A134,$K$1:$P$31,4,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135">
         <v>27</v>
       </c>
@@ -8755,11 +8768,11 @@
         <v>25</v>
       </c>
       <c r="C135">
-        <f t="shared" ref="C135:C151" si="123">VLOOKUP(A135,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C135" si="123">VLOOKUP(A135,$K$1:$P$31,5,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136">
         <v>27</v>
       </c>
@@ -8767,11 +8780,11 @@
         <v>26</v>
       </c>
       <c r="C136">
-        <f t="shared" ref="C136:C151" si="124">VLOOKUP(A136,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C136" si="124">VLOOKUP(A136,$K$1:$P$31,6,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137">
         <v>28</v>
       </c>
@@ -8779,11 +8792,11 @@
         <v>22</v>
       </c>
       <c r="C137" t="str">
-        <f t="shared" ref="C137:C151" si="125">VLOOKUP(A137,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C137" si="125">VLOOKUP(A137,$K$1:$P$31,2,0)</f>
         <v>9.575381 N, 105.750288 E</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138">
         <v>28</v>
       </c>
@@ -8791,11 +8804,11 @@
         <v>23</v>
       </c>
       <c r="C138">
-        <f t="shared" ref="C138:C151" si="126">VLOOKUP(A138,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C138" si="126">VLOOKUP(A138,$K$1:$P$31,3,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139">
         <v>28</v>
       </c>
@@ -8803,11 +8816,11 @@
         <v>24</v>
       </c>
       <c r="C139">
-        <f t="shared" ref="C139:C151" si="127">VLOOKUP(A139,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C139" si="127">VLOOKUP(A139,$K$1:$P$31,4,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140">
         <v>28</v>
       </c>
@@ -8815,11 +8828,11 @@
         <v>25</v>
       </c>
       <c r="C140">
-        <f t="shared" ref="C140:C151" si="128">VLOOKUP(A140,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C140" si="128">VLOOKUP(A140,$K$1:$P$31,5,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141">
         <v>28</v>
       </c>
@@ -8827,11 +8840,11 @@
         <v>26</v>
       </c>
       <c r="C141">
-        <f t="shared" ref="C141:C151" si="129">VLOOKUP(A141,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C141" si="129">VLOOKUP(A141,$K$1:$P$31,6,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142">
         <v>29</v>
       </c>
@@ -8839,11 +8852,11 @@
         <v>22</v>
       </c>
       <c r="C142" t="str">
-        <f t="shared" ref="C142:C151" si="130">VLOOKUP(A142,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C142" si="130">VLOOKUP(A142,$K$1:$P$31,2,0)</f>
         <v>9.574122 N, 105.751436 E</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="A143">
         <v>29</v>
       </c>
@@ -8851,11 +8864,11 @@
         <v>23</v>
       </c>
       <c r="C143">
-        <f t="shared" ref="C143:C151" si="131">VLOOKUP(A143,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C143" si="131">VLOOKUP(A143,$K$1:$P$31,3,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144">
         <v>29</v>
       </c>
@@ -8863,11 +8876,11 @@
         <v>24</v>
       </c>
       <c r="C144">
-        <f t="shared" ref="C144:C151" si="132">VLOOKUP(A144,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C144" si="132">VLOOKUP(A144,$K$1:$P$31,4,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145">
         <v>29</v>
       </c>
@@ -8875,11 +8888,11 @@
         <v>25</v>
       </c>
       <c r="C145">
-        <f t="shared" ref="C145:C151" si="133">VLOOKUP(A145,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C145" si="133">VLOOKUP(A145,$K$1:$P$31,5,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146">
         <v>29</v>
       </c>
@@ -8887,11 +8900,11 @@
         <v>26</v>
       </c>
       <c r="C146">
-        <f t="shared" ref="C146:C151" si="134">VLOOKUP(A146,$K$1:$P$31,6,0)</f>
+        <f t="shared" ref="C146" si="134">VLOOKUP(A146,$K$1:$P$31,6,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147">
         <v>30</v>
       </c>
@@ -8899,11 +8912,11 @@
         <v>22</v>
       </c>
       <c r="C147" t="str">
-        <f t="shared" ref="C147:C151" si="135">VLOOKUP(A147,$K$1:$P$31,2,0)</f>
+        <f t="shared" ref="C147" si="135">VLOOKUP(A147,$K$1:$P$31,2,0)</f>
         <v>9.575423 N, 105.749730 E</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148">
         <v>30</v>
       </c>
@@ -8911,11 +8924,11 @@
         <v>23</v>
       </c>
       <c r="C148">
-        <f t="shared" ref="C148:C151" si="136">VLOOKUP(A148,$K$1:$P$31,3,0)</f>
+        <f t="shared" ref="C148" si="136">VLOOKUP(A148,$K$1:$P$31,3,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149">
         <v>30</v>
       </c>
@@ -8923,11 +8936,11 @@
         <v>24</v>
       </c>
       <c r="C149">
-        <f t="shared" ref="C149:C151" si="137">VLOOKUP(A149,$K$1:$P$31,4,0)</f>
+        <f t="shared" ref="C149" si="137">VLOOKUP(A149,$K$1:$P$31,4,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150">
         <v>30</v>
       </c>
@@ -8935,11 +8948,11 @@
         <v>25</v>
       </c>
       <c r="C150">
-        <f t="shared" ref="C150:C151" si="138">VLOOKUP(A150,$K$1:$P$31,5,0)</f>
+        <f t="shared" ref="C150" si="138">VLOOKUP(A150,$K$1:$P$31,5,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151">
         <v>30</v>
       </c>
@@ -8954,4 +8967,2470 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:C151"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="13" style="35" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="35">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C2" t="str">
+        <f>VLOOKUP(A2,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=1SPt5-5-Eu5eLhNXVGMijMrIqagolFZ4i</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="35">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP(A3,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=1g08XkVrfOuc6Fx7YDp6eA6j14XZnv1Ck</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="35">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP(A4,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=1G_ygNQQ1GGmHk1AA8y7H5jowamzBUN6g</v>
+      </c>
+      <c r="F4" s="9">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="35">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP(A5,$F$1:$K$31,5,0)</f>
+        <v>https://drive.google.com/open?id=1P8mqWYHDDg3gYo65RSS8h8vNiY3DsHTr</v>
+      </c>
+      <c r="F5" s="9">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="35">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C6" t="str">
+        <f>VLOOKUP(A6,$F$1:$K$31,6,0)</f>
+        <v>https://drive.google.com/open?id=14bhLrXAcrHEU9DyzHabr4kwErBCvOZqw</v>
+      </c>
+      <c r="F6" s="9">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="35">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(A7,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=11e4vQj953s1KGSkE2yeDnUf6t_OUcfOI</v>
+      </c>
+      <c r="F7" s="9">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="35">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C8" t="str">
+        <f>VLOOKUP(A8,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=1Gk5XFK-dObncE5ofYi6deeOr24v_9YsA</v>
+      </c>
+      <c r="F8" s="9">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="35">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP(A9,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=1ho3UAHmYl_v901oVcA7kUpzyilSk-LXw</v>
+      </c>
+      <c r="F9" s="9">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="35">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C10" t="str">
+        <f>VLOOKUP(A10,$F$1:$K$31,5,0)</f>
+        <v>https://drive.google.com/open?id=1J-l29yz_Fbnb58X2YdTUYt2e9kPvP1nK</v>
+      </c>
+      <c r="F10" s="9">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="35">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C11">
+        <f>VLOOKUP(A11,$F$1:$K$31,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="35">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>401</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" ref="C12:C43" si="0">VLOOKUP(A12,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=13SdgByNjDXlZm4rEp0qBmgNnQTqpjjff</v>
+      </c>
+      <c r="F12" s="9">
+        <v>11</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="35">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" ref="C13:C44" si="1">VLOOKUP(A13,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=1zTKJj4cjMlNnpTCpuUKy6Q8iO3Cv4BH4</v>
+      </c>
+      <c r="F13" s="9">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="35">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C45" si="2">VLOOKUP(A14,$F$1:$K$31,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>13</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="35">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>401</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:C46" si="3">VLOOKUP(A15,$F$1:$K$31,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>14</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="35">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>401</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:C47" si="4">VLOOKUP(A16,$F$1:$K$31,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>15</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="35">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>401</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" ref="C17:C48" si="5">VLOOKUP(A17,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=1dAspuOaa2rVuawgZGO2ZYLt7WlOqO8sW</v>
+      </c>
+      <c r="F17" s="9">
+        <v>16</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="35">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>401</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" ref="C18:C49" si="6">VLOOKUP(A18,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=1CHHTR93V_xNb53pEwCd_axxOo3G85qum</v>
+      </c>
+      <c r="F18" s="9">
+        <v>17</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="35">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>401</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" ref="C19:C50" si="7">VLOOKUP(A19,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=1kSxroGIm5vdaB95quJQ3CAPeWCev3KtE</v>
+      </c>
+      <c r="F19" s="9">
+        <v>18</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="35">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>401</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" ref="C20:C51" si="8">VLOOKUP(A20,$F$1:$K$31,5,0)</f>
+        <v>https://drive.google.com/open?id=1T28URxMeDGBxHtFZYvFAt7iHr81zyK0f</v>
+      </c>
+      <c r="F20" s="9">
+        <v>19</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="35">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>401</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" ref="C21:C52" si="9">VLOOKUP(A21,$F$1:$K$31,6,0)</f>
+        <v>https://drive.google.com/open?id=1VO50fyXU8VAbdi0o5DHsMEXpkLYbZp04</v>
+      </c>
+      <c r="F21" s="9">
+        <v>20</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="35">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>401</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" ref="C22:C53" si="10">VLOOKUP(A22,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=1u-EnqYum36rkgofdJrBIanPmaMvufy2l</v>
+      </c>
+      <c r="F22" s="9">
+        <v>21</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="35">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>401</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" ref="C23:C54" si="11">VLOOKUP(A23,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=10lCRsK7vhMTtFm9v5sG6Kt1t1wZLi4du</v>
+      </c>
+      <c r="F23" s="9">
+        <v>22</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="35">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>401</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" ref="C24:C55" si="12">VLOOKUP(A24,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=14sIJhWFjZuh7PqdEWFsT7CDDgEl8FA9-</v>
+      </c>
+      <c r="F24" s="9">
+        <v>23</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="35">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>401</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" ref="C25:C56" si="13">VLOOKUP(A25,$F$1:$K$31,5,0)</f>
+        <v>https://drive.google.com/open?id=1C_Ctdntw2X6UjdvnzG0MFOW_K7ADo7xS</v>
+      </c>
+      <c r="F25" s="9">
+        <v>24</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="35">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>401</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" ref="C26:C57" si="14">VLOOKUP(A26,$F$1:$K$31,6,0)</f>
+        <v>https://drive.google.com/open?id=1l6ika5QSYBj-vxcmok5wkfU6nwrsKltf</v>
+      </c>
+      <c r="F26" s="9">
+        <v>25</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="35">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>401</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" ref="C27:C58" si="15">VLOOKUP(A27,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=1P7EV53D8yg3ZOLwaNKtRiQdPLzBSCait</v>
+      </c>
+      <c r="F27" s="9">
+        <v>26</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="35">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>401</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" ref="C28:C59" si="16">VLOOKUP(A28,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=1gKYR9qHwrxOa-ziZC-5CkrxFWptlALso</v>
+      </c>
+      <c r="F28" s="9">
+        <v>27</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="35">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>401</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" ref="C29:C60" si="17">VLOOKUP(A29,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=1RI_M7FECV4d7bQhK8S6BzgJSVb5HVHM9</v>
+      </c>
+      <c r="F29" s="9">
+        <v>28</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="35">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>401</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" ref="C30:C61" si="18">VLOOKUP(A30,$F$1:$K$31,5,0)</f>
+        <v>https://drive.google.com/open?id=1R05SImE9fn6gob8sAE8OYUOTjtN_oJIQ</v>
+      </c>
+      <c r="F30" s="9">
+        <v>29</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="35">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>401</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" ref="C31:C62" si="19">VLOOKUP(A31,$F$1:$K$31,6,0)</f>
+        <v>https://drive.google.com/open?id=1witFgiWDofH95NguqHHEHqavvwq_1TCl</v>
+      </c>
+      <c r="F31" s="9">
+        <v>30</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="35">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>401</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" ref="C32:C63" si="20">VLOOKUP(A32,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=1yU01M0KhxmBINIkpYgPYr0-FdKHkHr4V</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="35">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>401</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" ref="C33:C64" si="21">VLOOKUP(A33,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=190aqaXY26T7G0924gyfO9R28LCQqgx5E</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="35">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>401</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" ref="C34:C65" si="22">VLOOKUP(A34,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=1y8gsVPs_fq2M8Dol_xg1YZmhegYcdEwj</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="35">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>401</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" ref="C35:C66" si="23">VLOOKUP(A35,$F$1:$K$31,5,0)</f>
+        <v>https://drive.google.com/open?id=1Rc6JVKR5of48kUnSn4dvxD2YBKuz_Qax</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="35">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>401</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" ref="C36:C67" si="24">VLOOKUP(A36,$F$1:$K$31,6,0)</f>
+        <v>https://drive.google.com/open?id=1fBrHI93hTLVUyEi5NvPGi7Su8SeHnrlI</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="35">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>401</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" ref="C37:C68" si="25">VLOOKUP(A37,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=1dEO2xt0jbV5p4KXXtyIjQ0akIjgpLarq</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="35">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>401</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" ref="C38:C69" si="26">VLOOKUP(A38,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=1nnFbJiWrhpdt-knfDOAYGKxz-tLO3scw</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="35">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>401</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" ref="C39:C70" si="27">VLOOKUP(A39,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=1iXwwtDoJBcLKJArg7H6I8VxaPl09ujYt</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="35">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>401</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" ref="C40:C71" si="28">VLOOKUP(A40,$F$1:$K$31,5,0)</f>
+        <v>https://drive.google.com/open?id=1XSKok5YNj-mjm68z4-Badrf5N-gWOTfG</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="35">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>401</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" ref="C41:C72" si="29">VLOOKUP(A41,$F$1:$K$31,6,0)</f>
+        <v>https://drive.google.com/open?id=1K06DEe2wXMymHv9Nz1Bf4Sfh0pi1dFx-</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="35">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>401</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" ref="C42:C73" si="30">VLOOKUP(A42,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=1Pv4QpQ-XGXYkW3ledU52ga8n340JEecS</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="35">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>401</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" ref="C43:C74" si="31">VLOOKUP(A43,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=1W7VhA1EtUeXw0-xz5ZVA0GmNyOnHaqhK</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="35">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>401</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" ref="C44:C75" si="32">VLOOKUP(A44,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=1uFDKV9_aA4GK4wQaO3Ja7sw2SIm1HKQR</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="35">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>401</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" ref="C45:C76" si="33">VLOOKUP(A45,$F$1:$K$31,5,0)</f>
+        <v>https://drive.google.com/open?id=1dMNhLBobuf6udZnR9OSpzdnilPRZaBXS</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="35">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>401</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" ref="C46:C77" si="34">VLOOKUP(A46,$F$1:$K$31,6,0)</f>
+        <v>https://drive.google.com/open?id=1b6P0ANW6Prltr6lDAkChBN_2t-Or5v2n</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="35">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>401</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" ref="C47:C78" si="35">VLOOKUP(A47,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=1QbchYJMpLVv9Bo7Fz8cXZDgavCVUTe4l</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="35">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>401</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" ref="C48:C79" si="36">VLOOKUP(A48,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=19imjQ05jJmwpL4m1saUEavpVIiB-aMkU</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="35">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>401</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" ref="C49:C80" si="37">VLOOKUP(A49,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=1mr6-En-h1ef9_0z9SEzC2zWSu7ynN7Px</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="35">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>401</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50:C81" si="38">VLOOKUP(A50,$F$1:$K$31,5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="35">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>401</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:C82" si="39">VLOOKUP(A51,$F$1:$K$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="35">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>401</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" ref="C52:C83" si="40">VLOOKUP(A52,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=1ouKmdg13X3Gt9LvL2LYzzlp98s8SKlSP</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="35">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>401</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" ref="C53:C84" si="41">VLOOKUP(A53,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=1UaZURoURmTbbfJW3N02YenbPt97Rjgzf</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="35">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>401</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" ref="C54:C85" si="42">VLOOKUP(A54,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=13JkwOmJV_JPUeTExsSO142p29gIgo412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="35">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>401</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" ref="C55:C86" si="43">VLOOKUP(A55,$F$1:$K$31,5,0)</f>
+        <v>https://drive.google.com/open?id=1nQyI3u1IAKL7bpnDYvS6-J6FfRy-vfIy</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="35">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>401</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ref="C56:C87" si="44">VLOOKUP(A56,$F$1:$K$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="35">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>401</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" ref="C57:C88" si="45">VLOOKUP(A57,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=1w1Fz6UOGglW9q-Noy3eg7oKfJshRGUHr</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="35">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>401</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" ref="C58:C89" si="46">VLOOKUP(A58,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=1pW1Nc0NHa9bAIu2f9mQCeeSTVODE9GPK</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="35">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>401</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" ref="C59:C90" si="47">VLOOKUP(A59,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=1Gb9g1GIkW7AuNeJ09P8Ko2Kh3eeMpoHF</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="35">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>401</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" ref="C60:C91" si="48">VLOOKUP(A60,$F$1:$K$31,5,0)</f>
+        <v>https://drive.google.com/open?id=1GlHiMXevmRyCBRH69s4eePdxtY0yeUNF</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="35">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>401</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" ref="C61:C92" si="49">VLOOKUP(A61,$F$1:$K$31,6,0)</f>
+        <v>https://drive.google.com/open?id=1pSKpl2Bm9bP9FUEe72dvry9X9Kvy_ns7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="35">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>401</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" ref="C62:C93" si="50">VLOOKUP(A62,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=14vN4pz76NYcP3dk-gogAWCQdcJC-OHnQ</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="35">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>401</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" ref="C63:C94" si="51">VLOOKUP(A63,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=11bZoCZofkAdAFC1NRBKsE2F7FH3dzdCc</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="35">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>401</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" ref="C64:C95" si="52">VLOOKUP(A64,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=18cDrgsu9etfsa2yVIjoHryVqb_POucGZ</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="35">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>401</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" ref="C65:C96" si="53">VLOOKUP(A65,$F$1:$K$31,5,0)</f>
+        <v>https://drive.google.com/open?id=1ahXZxegL8tAY5LLq7M2Oa6778AvUuU6k</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="35">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>401</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" ref="C66:C97" si="54">VLOOKUP(A66,$F$1:$K$31,6,0)</f>
+        <v>https://drive.google.com/open?id=1rY2dEgfC7iTLEfAzG-lpskx-UYgo8zZz</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="35">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>401</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C98" si="55">VLOOKUP(A67,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=1KDIOjdWe0WWtjnKOwiOjJQ8ZYMD6YoVT</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="35">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>401</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" ref="C68:C99" si="56">VLOOKUP(A68,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=1i6ZwiNE05NWNBIjEwBPWcfpt91Fy9Iql</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="35">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>401</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" ref="C69:C100" si="57">VLOOKUP(A69,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=12wjSL0CgzmmwbnZm3Wo5VhAXJP8J0uZj</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="35">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>401</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ref="C70:C101" si="58">VLOOKUP(A70,$F$1:$K$31,5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="35">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>401</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ref="C71:C102" si="59">VLOOKUP(A71,$F$1:$K$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="35">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>401</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" ref="C72:C103" si="60">VLOOKUP(A72,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=1KhdSBs0QhUTP4pp0mbAobci_BfPXOFV7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="35">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>401</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" ref="C73:C104" si="61">VLOOKUP(A73,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=1xdlBaS3stP-cjsUfqEjn0cm6apbiMpLi</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="35">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>401</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" ref="C74:C105" si="62">VLOOKUP(A74,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=1QpeM3aeXKcl0pW2yC784tBOgVAvJ77iz</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="35">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>401</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" ref="C75:C106" si="63">VLOOKUP(A75,$F$1:$K$31,5,0)</f>
+        <v>https://drive.google.com/open?id=1y7jYDzTRl7UAM7UL5gRI3Wsu6LgS0X9G</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="35">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>401</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" ref="C76:C107" si="64">VLOOKUP(A76,$F$1:$K$31,6,0)</f>
+        <v>https://drive.google.com/open?id=118lLAeCbOSKtPiWrlv5UsQwZe_vmGKr7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="35">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>401</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" ref="C77:C108" si="65">VLOOKUP(A77,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=1kKHDrORLA0tGWmLz6_9vYObrpqSInlt-</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="35">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>401</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" ref="C78:C109" si="66">VLOOKUP(A78,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=1Q-1PbAvRUkffuLy1oltdCRTtA6K2Ar38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="35">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>401</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" ref="C79:C110" si="67">VLOOKUP(A79,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=1N_nQxYPGI-iO8SLnWKFs83ak1shRsgnV</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="35">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
+        <v>401</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" ref="C80:C111" si="68">VLOOKUP(A80,$F$1:$K$31,5,0)</f>
+        <v>https://drive.google.com/open?id=1foxg6ZqxAE8HLHPy9qyhGXV3LdqDztnV</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="35">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>401</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ref="C81:C112" si="69">VLOOKUP(A81,$F$1:$K$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="35">
+        <v>17</v>
+      </c>
+      <c r="B82" t="s">
+        <v>401</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" ref="C82:C113" si="70">VLOOKUP(A82,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=1WIFOpTgSWWclAUoCv-t4pPOwytQ7-bfQ</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="35">
+        <v>17</v>
+      </c>
+      <c r="B83" t="s">
+        <v>401</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" ref="C83:C114" si="71">VLOOKUP(A83,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=1dby2whsj8oinnjmIzcII_5McCItYg2MP</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="35">
+        <v>17</v>
+      </c>
+      <c r="B84" t="s">
+        <v>401</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" ref="C84:C115" si="72">VLOOKUP(A84,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=1ATl6DfttZJYHmhSke6pztgIHlEJMpz0R</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="35">
+        <v>17</v>
+      </c>
+      <c r="B85" t="s">
+        <v>401</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ref="C85:C116" si="73">VLOOKUP(A85,$F$1:$K$31,5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="35">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>401</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ref="C86:C117" si="74">VLOOKUP(A86,$F$1:$K$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="35">
+        <v>18</v>
+      </c>
+      <c r="B87" t="s">
+        <v>401</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" ref="C87:C118" si="75">VLOOKUP(A87,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=17RdKj0wtBxz_4QmV89W9CTNwDU90hUSh</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="35">
+        <v>18</v>
+      </c>
+      <c r="B88" t="s">
+        <v>401</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" ref="C88:C119" si="76">VLOOKUP(A88,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=1UxM_d6ji5K68PlDSQsCPMEiuXrhKw9ab</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="35">
+        <v>18</v>
+      </c>
+      <c r="B89" t="s">
+        <v>401</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" ref="C89:C120" si="77">VLOOKUP(A89,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=1Wetyj-hyzZZcpua0lyM9dkZ29zWwoX0o</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="35">
+        <v>18</v>
+      </c>
+      <c r="B90" t="s">
+        <v>401</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ref="C90:C121" si="78">VLOOKUP(A90,$F$1:$K$31,5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="35">
+        <v>18</v>
+      </c>
+      <c r="B91" t="s">
+        <v>401</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ref="C91:C122" si="79">VLOOKUP(A91,$F$1:$K$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="35">
+        <v>19</v>
+      </c>
+      <c r="B92" t="s">
+        <v>401</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" ref="C92:C123" si="80">VLOOKUP(A92,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=1sr_hifnEomBxretJZNPlynvborcwfSjF</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="35">
+        <v>19</v>
+      </c>
+      <c r="B93" t="s">
+        <v>401</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" ref="C93:C124" si="81">VLOOKUP(A93,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=1jSCBUb3ZV76BDmGYPmNIwq6Ajl1RvJt5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="35">
+        <v>19</v>
+      </c>
+      <c r="B94" t="s">
+        <v>401</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ref="C94:C125" si="82">VLOOKUP(A94,$F$1:$K$31,4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="35">
+        <v>19</v>
+      </c>
+      <c r="B95" t="s">
+        <v>401</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ref="C95:C126" si="83">VLOOKUP(A95,$F$1:$K$31,5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="35">
+        <v>19</v>
+      </c>
+      <c r="B96" t="s">
+        <v>401</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ref="C96:C127" si="84">VLOOKUP(A96,$F$1:$K$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="35">
+        <v>20</v>
+      </c>
+      <c r="B97" t="s">
+        <v>401</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" ref="C97:C128" si="85">VLOOKUP(A97,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=1vpmtlaFYXaAmxdgm3C54Ii3TEj_uo3mK</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="35">
+        <v>20</v>
+      </c>
+      <c r="B98" t="s">
+        <v>401</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" ref="C98:C129" si="86">VLOOKUP(A98,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=1YlYwKK3K3jlSv9OUk04OZaTQ2tcuo1ON</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="35">
+        <v>20</v>
+      </c>
+      <c r="B99" t="s">
+        <v>401</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" ref="C99:C130" si="87">VLOOKUP(A99,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=1uoUEAL4IYLpLfv-vtTsy1bvO-QdzNLN7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="35">
+        <v>20</v>
+      </c>
+      <c r="B100" t="s">
+        <v>401</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" ref="C100:C131" si="88">VLOOKUP(A100,$F$1:$K$31,5,0)</f>
+        <v>https://drive.google.com/open?id=1CTYH35rff_Zh20EwgAxEzv-mCBXraRtR</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="35">
+        <v>20</v>
+      </c>
+      <c r="B101" t="s">
+        <v>401</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" ref="C101:C132" si="89">VLOOKUP(A101,$F$1:$K$31,6,0)</f>
+        <v>https://drive.google.com/open?id=1-Adkb-UzijLfezGYifaJ3q41S6p1L0IF</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="35">
+        <v>21</v>
+      </c>
+      <c r="B102" t="s">
+        <v>401</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" ref="C102:C133" si="90">VLOOKUP(A102,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=1M1iJZ7xcKWrqhwrexn_Od2R-qabF7EWB</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="35">
+        <v>21</v>
+      </c>
+      <c r="B103" t="s">
+        <v>401</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" ref="C103:C134" si="91">VLOOKUP(A103,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=1UU0PQVUmkNY3UIT_XPWih4dHWsSno6AY</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="35">
+        <v>21</v>
+      </c>
+      <c r="B104" t="s">
+        <v>401</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" ref="C104:C151" si="92">VLOOKUP(A104,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=1XZ4UafzUsZVURbhWYn8kFYQkFN-Xzw2T</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="35">
+        <v>21</v>
+      </c>
+      <c r="B105" t="s">
+        <v>401</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" ref="C105:C151" si="93">VLOOKUP(A105,$F$1:$K$31,5,0)</f>
+        <v>https://drive.google.com/open?id=1jFzrqSHNm4KseQqM9Clr1BdC85c5ovG9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="35">
+        <v>21</v>
+      </c>
+      <c r="B106" t="s">
+        <v>401</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" ref="C106:C151" si="94">VLOOKUP(A106,$F$1:$K$31,6,0)</f>
+        <v>https://drive.google.com/open?id=1zLiyaJASoCvOe3uxL3_tZyxy5BeYu8hG</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="35">
+        <v>22</v>
+      </c>
+      <c r="B107" t="s">
+        <v>401</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" ref="C107:C151" si="95">VLOOKUP(A107,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=1SgYKmc-B_-wrXB36WDCJ4YjyeaBfG5ki</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="35">
+        <v>22</v>
+      </c>
+      <c r="B108" t="s">
+        <v>401</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" ref="C108:C151" si="96">VLOOKUP(A108,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=1ukCU2ghJs06SE_HaotSPCz9cN11mXMJO</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="35">
+        <v>22</v>
+      </c>
+      <c r="B109" t="s">
+        <v>401</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" ref="C109:C151" si="97">VLOOKUP(A109,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=1nTcuqCy7ywFdXs8yfpugmjXEsPWp9Uqa</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="35">
+        <v>22</v>
+      </c>
+      <c r="B110" t="s">
+        <v>401</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" ref="C110:C151" si="98">VLOOKUP(A110,$F$1:$K$31,5,0)</f>
+        <v>https://drive.google.com/open?id=1coreid3G4uQ0ML6tP3Gz_ZKfca0ej9dY</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="35">
+        <v>22</v>
+      </c>
+      <c r="B111" t="s">
+        <v>401</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" ref="C111:C151" si="99">VLOOKUP(A111,$F$1:$K$31,6,0)</f>
+        <v>https://drive.google.com/open?id=1AQ1HkG_xGQUTjyOn0F00CrZh3ZcDdTy9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="35">
+        <v>23</v>
+      </c>
+      <c r="B112" t="s">
+        <v>401</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" ref="C112:C151" si="100">VLOOKUP(A112,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=1WoIN1d-QBwRGyT1eqKCcfi-Wp5RauKJS</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="35">
+        <v>23</v>
+      </c>
+      <c r="B113" t="s">
+        <v>401</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" ref="C113:C151" si="101">VLOOKUP(A113,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=1rN9sxEBPp0CfbuMRaWt6E-F0giBR-i4J</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="35">
+        <v>23</v>
+      </c>
+      <c r="B114" t="s">
+        <v>401</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" ref="C114:C151" si="102">VLOOKUP(A114,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=1KDR3vJpcME72Xcp49Ro4nShF6ab2OXx_</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="35">
+        <v>23</v>
+      </c>
+      <c r="B115" t="s">
+        <v>401</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" ref="C115:C151" si="103">VLOOKUP(A115,$F$1:$K$31,5,0)</f>
+        <v>https://drive.google.com/open?id=1rtf2vw22gsw6r-X1rk3KBZWEZioqb3ym</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="35">
+        <v>23</v>
+      </c>
+      <c r="B116" t="s">
+        <v>401</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" ref="C116:C151" si="104">VLOOKUP(A116,$F$1:$K$31,6,0)</f>
+        <v>https://drive.google.com/open?id=1MxLrhThqJ7JEWQZHZrGv5nLqx6bCUl8G</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="35">
+        <v>24</v>
+      </c>
+      <c r="B117" t="s">
+        <v>401</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" ref="C117:C151" si="105">VLOOKUP(A117,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=1S8ZAHtASf9M_YmaA98dPKDYUPX9Cxu-b</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="35">
+        <v>24</v>
+      </c>
+      <c r="B118" t="s">
+        <v>401</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" ref="C118:C151" si="106">VLOOKUP(A118,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=1RjevrTAeVkBig2J0HBOKy8jUe7_a1CLL</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="35">
+        <v>24</v>
+      </c>
+      <c r="B119" t="s">
+        <v>401</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" ref="C119:C151" si="107">VLOOKUP(A119,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=1uvU2vxc5PDoYmmWi7ReeTPdIdLVa5XnC</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="35">
+        <v>24</v>
+      </c>
+      <c r="B120" t="s">
+        <v>401</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" ref="C120:C151" si="108">VLOOKUP(A120,$F$1:$K$31,5,0)</f>
+        <v>https://drive.google.com/open?id=1wCnCBhkFEw5UWmx0EpHYtdBJOF099m1O</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="35">
+        <v>24</v>
+      </c>
+      <c r="B121" t="s">
+        <v>401</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" ref="C121:C151" si="109">VLOOKUP(A121,$F$1:$K$31,6,0)</f>
+        <v>https://drive.google.com/open?id=1jmn51f0emnDSXBP63alR1jJAFSM5haI2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="35">
+        <v>25</v>
+      </c>
+      <c r="B122" t="s">
+        <v>401</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" ref="C122:C151" si="110">VLOOKUP(A122,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=1aqu-EoDKwT0L91YjnSPBw6F-l1N9DHn5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="35">
+        <v>25</v>
+      </c>
+      <c r="B123" t="s">
+        <v>401</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" ref="C123:C151" si="111">VLOOKUP(A123,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=1HLtdGR7dsCnWs8IEp6WvCRHmNcl-6yz3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="35">
+        <v>25</v>
+      </c>
+      <c r="B124" t="s">
+        <v>401</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" ref="C124:C151" si="112">VLOOKUP(A124,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=1MMSYamfD30IZ7nPCJmMNwNETXWPBx14T</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="35">
+        <v>25</v>
+      </c>
+      <c r="B125" t="s">
+        <v>401</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" ref="C125:C151" si="113">VLOOKUP(A125,$F$1:$K$31,5,0)</f>
+        <v>https://drive.google.com/open?id=1d1BlyR6zFskZhAml-Gx0phlVSa9EYNzq</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="35">
+        <v>25</v>
+      </c>
+      <c r="B126" t="s">
+        <v>401</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" ref="C126:C151" si="114">VLOOKUP(A126,$F$1:$K$31,6,0)</f>
+        <v>https://drive.google.com/open?id=1VNCWT5omdLYrO3vd0kNVjeLtmMGXGl04</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="35">
+        <v>26</v>
+      </c>
+      <c r="B127" t="s">
+        <v>401</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" ref="C127:C151" si="115">VLOOKUP(A127,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=1PmuUeYwkh7apn2-AoIo74RehQZQF2wpb</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="35">
+        <v>26</v>
+      </c>
+      <c r="B128" t="s">
+        <v>401</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" ref="C128:C151" si="116">VLOOKUP(A128,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=1ORAndIRPUlZ3yvzR0lAjWF1XrRQtnRGZ</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="35">
+        <v>26</v>
+      </c>
+      <c r="B129" t="s">
+        <v>401</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" ref="C129:C151" si="117">VLOOKUP(A129,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=1JQ_FoJfWAPp42Ubr3R96GLpKyvbL27Fq</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="35">
+        <v>26</v>
+      </c>
+      <c r="B130" t="s">
+        <v>401</v>
+      </c>
+      <c r="C130">
+        <f t="shared" ref="C130:C151" si="118">VLOOKUP(A130,$F$1:$K$31,5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="35">
+        <v>26</v>
+      </c>
+      <c r="B131" t="s">
+        <v>401</v>
+      </c>
+      <c r="C131">
+        <f t="shared" ref="C131:C151" si="119">VLOOKUP(A131,$F$1:$K$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="35">
+        <v>27</v>
+      </c>
+      <c r="B132" t="s">
+        <v>401</v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" ref="C132:C151" si="120">VLOOKUP(A132,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=121Q2C76_ZrkewlkZ7YqCR2SrKE9O05m4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="35">
+        <v>27</v>
+      </c>
+      <c r="B133" t="s">
+        <v>401</v>
+      </c>
+      <c r="C133" t="str">
+        <f t="shared" ref="C133:C151" si="121">VLOOKUP(A133,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=1DaePXZTxSIlyaW2K-IOoTqNbpctlzVRa</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="35">
+        <v>27</v>
+      </c>
+      <c r="B134" t="s">
+        <v>401</v>
+      </c>
+      <c r="C134" t="str">
+        <f t="shared" ref="C134:C151" si="122">VLOOKUP(A134,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=15G9c0-fGCYrsj7LokgaCglv4oM24ftrB</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="35">
+        <v>27</v>
+      </c>
+      <c r="B135" t="s">
+        <v>401</v>
+      </c>
+      <c r="C135" t="str">
+        <f t="shared" ref="C135:C151" si="123">VLOOKUP(A135,$F$1:$K$31,5,0)</f>
+        <v>https://drive.google.com/open?id=12Vgdh9LAbRXzNfaf9JBcSe_N1f6q5vUf</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="35">
+        <v>27</v>
+      </c>
+      <c r="B136" t="s">
+        <v>401</v>
+      </c>
+      <c r="C136">
+        <f t="shared" ref="C136:C151" si="124">VLOOKUP(A136,$F$1:$K$31,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="35">
+        <v>28</v>
+      </c>
+      <c r="B137" t="s">
+        <v>401</v>
+      </c>
+      <c r="C137" t="str">
+        <f t="shared" ref="C137:C151" si="125">VLOOKUP(A137,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=1XU3dkPM576kAs2TkLOHqocj_4lc0BWGI</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="35">
+        <v>28</v>
+      </c>
+      <c r="B138" t="s">
+        <v>401</v>
+      </c>
+      <c r="C138" t="str">
+        <f t="shared" ref="C138:C151" si="126">VLOOKUP(A138,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=15fCO8EhyeHzrxDSjyi2Cpn06J7oBKgY8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="35">
+        <v>28</v>
+      </c>
+      <c r="B139" t="s">
+        <v>401</v>
+      </c>
+      <c r="C139" t="str">
+        <f t="shared" ref="C139:C151" si="127">VLOOKUP(A139,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=19fpuTEUgPjW1Ppam_0w_VvwRWBmR2oc_</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="35">
+        <v>28</v>
+      </c>
+      <c r="B140" t="s">
+        <v>401</v>
+      </c>
+      <c r="C140" t="str">
+        <f t="shared" ref="C140:C151" si="128">VLOOKUP(A140,$F$1:$K$31,5,0)</f>
+        <v>https://drive.google.com/open?id=1PMXbC30SZqptQLuYU4_Q6KD6PV2h5FiJ</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="35">
+        <v>28</v>
+      </c>
+      <c r="B141" t="s">
+        <v>401</v>
+      </c>
+      <c r="C141" t="str">
+        <f t="shared" ref="C141:C151" si="129">VLOOKUP(A141,$F$1:$K$31,6,0)</f>
+        <v>https://drive.google.com/open?id=1tUPqJQbZ9ssxrN3dI_pW5fU8gWx3I5rM</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="35">
+        <v>29</v>
+      </c>
+      <c r="B142" t="s">
+        <v>401</v>
+      </c>
+      <c r="C142" t="str">
+        <f t="shared" ref="C142:C151" si="130">VLOOKUP(A142,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=1lq79QgaKaanvDmafG4k-gp32yfn09n2D</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="35">
+        <v>29</v>
+      </c>
+      <c r="B143" t="s">
+        <v>401</v>
+      </c>
+      <c r="C143" t="str">
+        <f t="shared" ref="C143:C151" si="131">VLOOKUP(A143,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=1-sV1gpVyiGPg-Cv475h2z8mrv5feaes-</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="35">
+        <v>29</v>
+      </c>
+      <c r="B144" t="s">
+        <v>401</v>
+      </c>
+      <c r="C144" t="str">
+        <f t="shared" ref="C144:C151" si="132">VLOOKUP(A144,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=1-63Btp3O2h-GUsmUxSLxlayR0ChaQ4Az</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="35">
+        <v>29</v>
+      </c>
+      <c r="B145" t="s">
+        <v>401</v>
+      </c>
+      <c r="C145" t="str">
+        <f t="shared" ref="C145:C151" si="133">VLOOKUP(A145,$F$1:$K$31,5,0)</f>
+        <v>https://drive.google.com/open?id=1ZG1o4uqJ-lsTFFztDvvMpy2OzAaTKmvU</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="35">
+        <v>29</v>
+      </c>
+      <c r="B146" t="s">
+        <v>401</v>
+      </c>
+      <c r="C146" t="str">
+        <f t="shared" ref="C146:C151" si="134">VLOOKUP(A146,$F$1:$K$31,6,0)</f>
+        <v>https://drive.google.com/open?id=1q6pW8AAlbF7i5GJz1pPS56i3ANNjI0WY</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="35">
+        <v>30</v>
+      </c>
+      <c r="B147" t="s">
+        <v>401</v>
+      </c>
+      <c r="C147" t="str">
+        <f t="shared" ref="C147:C151" si="135">VLOOKUP(A147,$F$1:$K$31,2,0)</f>
+        <v>https://drive.google.com/open?id=1G0p0-MM3GCk9Vg7-i0IkHNake2C401Eq</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="35">
+        <v>30</v>
+      </c>
+      <c r="B148" t="s">
+        <v>401</v>
+      </c>
+      <c r="C148" t="str">
+        <f t="shared" ref="C148:C151" si="136">VLOOKUP(A148,$F$1:$K$31,3,0)</f>
+        <v>https://drive.google.com/open?id=1HCD56PjAHYgBe6pOTSRccEgDaeW7lImk</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="35">
+        <v>30</v>
+      </c>
+      <c r="B149" t="s">
+        <v>401</v>
+      </c>
+      <c r="C149" t="str">
+        <f t="shared" ref="C149:C151" si="137">VLOOKUP(A149,$F$1:$K$31,4,0)</f>
+        <v>https://drive.google.com/open?id=1lCr_iZtJ-r1-f73GB-oh27uEXgOeetac</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="35">
+        <v>30</v>
+      </c>
+      <c r="B150" t="s">
+        <v>401</v>
+      </c>
+      <c r="C150" t="str">
+        <f t="shared" ref="C150:C151" si="138">VLOOKUP(A150,$F$1:$K$31,5,0)</f>
+        <v>https://drive.google.com/open?id=1T_rpZc568T10Psg7iFckyMFIF1y48jZ_</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="35">
+        <v>30</v>
+      </c>
+      <c r="B151" t="s">
+        <v>401</v>
+      </c>
+      <c r="C151" t="str">
+        <f t="shared" ref="C151" si="139">VLOOKUP(A151,$F$1:$K$31,6,0)</f>
+        <v>https://drive.google.com/open?id=1f1jIaWVl1DasQdUilcVt2FwmjAmBEKSS</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="I2" r:id="rId3"/>
+    <hyperlink ref="J2" r:id="rId4"/>
+    <hyperlink ref="K2" r:id="rId5"/>
+    <hyperlink ref="G3" r:id="rId6"/>
+    <hyperlink ref="H3" r:id="rId7"/>
+    <hyperlink ref="I3" r:id="rId8"/>
+    <hyperlink ref="J3" r:id="rId9"/>
+    <hyperlink ref="G4" r:id="rId10"/>
+    <hyperlink ref="H4" r:id="rId11"/>
+    <hyperlink ref="G5" r:id="rId12"/>
+    <hyperlink ref="H5" r:id="rId13"/>
+    <hyperlink ref="I5" r:id="rId14"/>
+    <hyperlink ref="J5" r:id="rId15"/>
+    <hyperlink ref="K5" r:id="rId16"/>
+    <hyperlink ref="G6" r:id="rId17"/>
+    <hyperlink ref="H6" r:id="rId18"/>
+    <hyperlink ref="I6" r:id="rId19"/>
+    <hyperlink ref="J6" r:id="rId20"/>
+    <hyperlink ref="K6" r:id="rId21"/>
+    <hyperlink ref="G7" r:id="rId22"/>
+    <hyperlink ref="H7" r:id="rId23"/>
+    <hyperlink ref="I7" r:id="rId24"/>
+    <hyperlink ref="J7" r:id="rId25"/>
+    <hyperlink ref="K7" r:id="rId26"/>
+    <hyperlink ref="G8" r:id="rId27"/>
+    <hyperlink ref="H8" r:id="rId28"/>
+    <hyperlink ref="I8" r:id="rId29"/>
+    <hyperlink ref="J8" r:id="rId30"/>
+    <hyperlink ref="K8" r:id="rId31"/>
+    <hyperlink ref="G9" r:id="rId32"/>
+    <hyperlink ref="H9" r:id="rId33"/>
+    <hyperlink ref="I9" r:id="rId34"/>
+    <hyperlink ref="J9" r:id="rId35"/>
+    <hyperlink ref="K9" r:id="rId36"/>
+    <hyperlink ref="G10" r:id="rId37"/>
+    <hyperlink ref="H10" r:id="rId38"/>
+    <hyperlink ref="I10" r:id="rId39"/>
+    <hyperlink ref="J10" r:id="rId40"/>
+    <hyperlink ref="K10" r:id="rId41"/>
+    <hyperlink ref="G11" r:id="rId42"/>
+    <hyperlink ref="H11" r:id="rId43"/>
+    <hyperlink ref="I11" r:id="rId44"/>
+    <hyperlink ref="G12" r:id="rId45"/>
+    <hyperlink ref="H12" r:id="rId46"/>
+    <hyperlink ref="I12" r:id="rId47"/>
+    <hyperlink ref="J12" r:id="rId48"/>
+    <hyperlink ref="G13" r:id="rId49"/>
+    <hyperlink ref="H13" r:id="rId50"/>
+    <hyperlink ref="I13" r:id="rId51"/>
+    <hyperlink ref="J13" r:id="rId52"/>
+    <hyperlink ref="K13" r:id="rId53"/>
+    <hyperlink ref="G14" r:id="rId54"/>
+    <hyperlink ref="H14" r:id="rId55"/>
+    <hyperlink ref="I14" r:id="rId56"/>
+    <hyperlink ref="J14" r:id="rId57"/>
+    <hyperlink ref="K14" r:id="rId58"/>
+    <hyperlink ref="G15" r:id="rId59"/>
+    <hyperlink ref="H15" r:id="rId60"/>
+    <hyperlink ref="I15" r:id="rId61"/>
+    <hyperlink ref="G16" r:id="rId62"/>
+    <hyperlink ref="H16" r:id="rId63"/>
+    <hyperlink ref="I16" r:id="rId64"/>
+    <hyperlink ref="J16" r:id="rId65"/>
+    <hyperlink ref="K16" r:id="rId66"/>
+    <hyperlink ref="G17" r:id="rId67"/>
+    <hyperlink ref="H17" r:id="rId68"/>
+    <hyperlink ref="I17" r:id="rId69"/>
+    <hyperlink ref="J17" r:id="rId70"/>
+    <hyperlink ref="G18" r:id="rId71"/>
+    <hyperlink ref="H18" r:id="rId72"/>
+    <hyperlink ref="I18" r:id="rId73"/>
+    <hyperlink ref="G19" r:id="rId74"/>
+    <hyperlink ref="H19" r:id="rId75"/>
+    <hyperlink ref="I19" r:id="rId76"/>
+    <hyperlink ref="G20" r:id="rId77"/>
+    <hyperlink ref="H20" r:id="rId78"/>
+    <hyperlink ref="G21" r:id="rId79"/>
+    <hyperlink ref="H21" r:id="rId80"/>
+    <hyperlink ref="I21" r:id="rId81"/>
+    <hyperlink ref="J21" r:id="rId82"/>
+    <hyperlink ref="K21" r:id="rId83"/>
+    <hyperlink ref="G22" r:id="rId84"/>
+    <hyperlink ref="H22" r:id="rId85"/>
+    <hyperlink ref="I22" r:id="rId86"/>
+    <hyperlink ref="J22" r:id="rId87"/>
+    <hyperlink ref="K22" r:id="rId88"/>
+    <hyperlink ref="G23" r:id="rId89"/>
+    <hyperlink ref="H23" r:id="rId90"/>
+    <hyperlink ref="I23" r:id="rId91"/>
+    <hyperlink ref="J23" r:id="rId92"/>
+    <hyperlink ref="K23" r:id="rId93"/>
+    <hyperlink ref="G24" r:id="rId94"/>
+    <hyperlink ref="H24" r:id="rId95"/>
+    <hyperlink ref="I24" r:id="rId96"/>
+    <hyperlink ref="J24" r:id="rId97"/>
+    <hyperlink ref="K24" r:id="rId98"/>
+    <hyperlink ref="G25" r:id="rId99"/>
+    <hyperlink ref="H25" r:id="rId100"/>
+    <hyperlink ref="I25" r:id="rId101"/>
+    <hyperlink ref="J25" r:id="rId102"/>
+    <hyperlink ref="K25" r:id="rId103"/>
+    <hyperlink ref="G26" r:id="rId104"/>
+    <hyperlink ref="H26" r:id="rId105"/>
+    <hyperlink ref="I26" r:id="rId106"/>
+    <hyperlink ref="J26" r:id="rId107"/>
+    <hyperlink ref="K26" r:id="rId108"/>
+    <hyperlink ref="G27" r:id="rId109"/>
+    <hyperlink ref="H27" r:id="rId110"/>
+    <hyperlink ref="I27" r:id="rId111"/>
+    <hyperlink ref="G28" r:id="rId112"/>
+    <hyperlink ref="H28" r:id="rId113"/>
+    <hyperlink ref="I28" r:id="rId114"/>
+    <hyperlink ref="J28" r:id="rId115"/>
+    <hyperlink ref="G29" r:id="rId116"/>
+    <hyperlink ref="H29" r:id="rId117"/>
+    <hyperlink ref="I29" r:id="rId118"/>
+    <hyperlink ref="J29" r:id="rId119"/>
+    <hyperlink ref="K29" r:id="rId120"/>
+    <hyperlink ref="G30" r:id="rId121"/>
+    <hyperlink ref="H30" r:id="rId122"/>
+    <hyperlink ref="I30" r:id="rId123"/>
+    <hyperlink ref="J30" r:id="rId124"/>
+    <hyperlink ref="K30" r:id="rId125"/>
+    <hyperlink ref="G31" r:id="rId126"/>
+    <hyperlink ref="H31" r:id="rId127"/>
+    <hyperlink ref="I31" r:id="rId128"/>
+    <hyperlink ref="J31" r:id="rId129"/>
+    <hyperlink ref="K31" r:id="rId130"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>